--- a/results/data_testing_labeled.xlsx
+++ b/results/data_testing_labeled.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan kontur kampus Undip yang cocok untuk olahraga tetapi tidak untuk aktivitas ngampus sehari-hari, mengandung sentimen pro dan kontra sehingga netral secara keseluruhan.</t>
+          <t>Tweet berisi saran mengenai kondisi geografis kampus Undip yang naik turun, bersifat informatif dan tidak mengandung sentimen dominan.</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi rute transportasi umum yang melewati Undip.</t>
+          <t>Tweet memberikan informasi detail rute transportasi umum dari dan ke Undip, bersifat murni informatif.</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan kekecewaan dan keharusan untuk ikhlas karena tidak diterima di Undip.</t>
+          <t>Tweet mengungkapkan kekecewaan atau kesedihan karena tidak berhasil masuk Undip, menunjukkan sentimen negatif terkait pengalaman pribadi.</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa syukur dan kebahagiaan karena menjadi mahasiswa Undip.</t>
+          <t>Tweet mengekspresikan rasa syukur dan kebahagiaan karena menjadi mahasiswa Undip.</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tweet berisi pertanyaan netral yang menunjukkan rasa penasaran mengenai kegiatan ospek di Undip.</t>
+          <t>Tweet berupa pertanyaan yang menunjukkan rasa penasaran mengenai kegiatan di Undip, tidak mengandung sentimen.</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tweet informatif mengenai sistem peringatan banjir yang berkaitan dengan Undip. Catatan: TERINDIKASI BUZZER karena penggunaan banyak hashtag generik.</t>
+          <t>Tweet berisi pemberitahuan informasi publik yang mencantumkan hashtag #undip, kemungkinan besar karena proyek atau relevansi lokasi. Catatan: TERINDIKASI BUZZER karena formatnya seperti siaran pers otomatis untuk mempromosikan website.</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tweet menceritakan perubahan aspirasi dari Undip ke universitas lain, bersifat narasi personal.</t>
+          <t>Tweet menceritakan perubahan pilihan universitas dari Undip ke Unpad. Ini adalah refleksi pribadi, bukan sentimen terhadap Undip.</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa tidak suka atau kekecewaan karena diterima di beberapa jalur masuk universitas, termasuk kemitraan Undip.</t>
+          <t>Tweet mengungkapkan rasa tidak suka ("sucks") karena diterima melalui jalur kemitraan di beberapa universitas, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan nama lokasi di Undip sebagai jawaban, bersifat netral.</t>
+          <t>Tweet hanya menyebutkan sebuah lokasi di Undip ("bukit undip") sebagai balasan, tanpa sentimen tambahan.</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan penolakan atau preferensi negatif terhadap UGM dan Undip.</t>
+          <t>Tweet menyatakan penolakan atau pilihan pribadi terhadap UGM atau Undip tanpa memberikan alasan atau sentimen.</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tweet berisi harapan positif agar temannya diterima di Undip.</t>
+          <t>Tweet berisi permohonan atau harapan agar teman diterima di Undip, menunjukkan keinginan positif terkait universitas.</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tweet berisi harapan personal yang bernada humor dan positif terkait Undip.</t>
+          <t>Tweet bernada humoris yang mengekspresikan harapan untuk menemukan pasangan di Undip, mengasosiasikan hal positif dengan kampus.</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan netral kepada orang lain mengenai jurusan kuliah di Undip.</t>
+          <t>Tweet berupa pertanyaan sederhana mengenai jurusan yang diambil di Undip, bersifat transaksional.</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan harapan positif agar seseorang lolos seleksi di Undip.</t>
+          <t>Tweet mengungkapkan harapan agar seseorang lolos seleksi masuk Undip, menunjukkan dukungan dan sentimen positif.</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tweet mengkritik kontur kampus Undip yang dianggap tidak ramah untuk bersepeda.</t>
+          <t>Tweet berisi kritik terhadap kondisi kampus Undip yang dianggap tidak ramah sepeda.</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tweet menceritakan kembali kenangan bahagia dan rasa bangga saat diterima di Undip.</t>
+          <t>Tweet menceritakan kenangan bangga dan bahagia saat diterima di Undip, menunjukkan sentimen positif yang kuat.</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip dalam daftar nama universitas lain tanpa sentimen.</t>
+          <t>Tweet hanya berisi daftar nama beberapa universitas, termasuk Undip, tanpa konteks atau sentimen.</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tweet berisi permintaan doa agar temannya lolos seleksi FK Undip, menunjukkan harapan positif.</t>
+          <t>Tweet meminta doa agar teman lolos di FK Undip, menunjukkan Undip sebagai tujuan yang diinginkan dan dihargai.</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tweet membela Undip dengan menyatakan bahwa diterima di sana adalah hal baik yang patut disyukuri.</t>
+          <t>Tweet membela Undip dengan menyatakan bahwa diterima di sana adalah hal yang baik dan patut disyukuri.</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan pilihan jurusan di Undip dan Unnes secara faktual.</t>
+          <t>Tweet hanya menyebutkan nama jurusan dan universitas (Manajemen Undip) tanpa sentimen.</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tweet berisi pertanyaan informatif mengenai jadwal pengumuman mandiri Undip.</t>
+          <t>Tweet berupa pertanyaan mengenai jadwal pengumuman ujian mandiri Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tweet membela Undip dengan menyatakan bahwa Undip adalah universitas yang baik, menyiratkan sentimen positif.</t>
+          <t>Tweet membela Undip dengan menyatakan bahwa Undip adalah universitas yang baik, sebagai tanggapan terhadap orang lain.</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tweet memberikan penilaian negatif secara spesifik kepada tim KKN perempuan dari Undip di suatu lokasi.</t>
+          <t>Tweet memberikan stereotip negatif kepada tim KKN Undip di lokasi tertentu, menyebut mereka "galak semua".</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan harapan positif untuk diterima di Undip.</t>
+          <t>Tweet mengekspresikan harapan yang kuat untuk diterima di Undip.</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan antusiasme dan kegembiraan akan menjadi mahasiswa baru Undip.</t>
+          <t>Tweet menunjukkan kegembiraan dan antusiasme untuk menjadi mahasiswa baru Undip.</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa 'gagal move on' (gamon) dan kesedihan karena tidak diterima di Undip, meskipun sudah diterima di tempat lain.</t>
+          <t>Tweet mengungkapkan perasaan "gagal move on" (gamon) dari Undip setelah ditolak, menunjukkan kekecewaan pribadi namun sekaligus mengindikasikan Undip sangat diinginkan. Sentimen dominannya adalah kesedihan.</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa sedih karena tidak bisa masuk ke universitas-universitas besar termasuk Undip.</t>
+          <t>Tweet mengungkapkan kesedihan atau iri karena tidak bisa masuk ke universitas top seperti Undip. Sentimennya adalah kekecewaan pribadi.</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan harapan atau manifestasi untuk bisa diterima di Undip.</t>
+          <t>Tweet mengekspresikan harapan dan manifestasi untuk diterima di Undip, menunjukkan keinginan yang kuat.</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tweet menyatakan sebuah rencana personal yang berkaitan dengan Undip secara netral.</t>
+          <t>Tweet menyatakan rencana untuk melakukan sesuatu di Undip, bersifat netral tanpa detail sentimen.</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan perasaan tegang terkait pengumuman, namun netral terhadap Undip sebagai institusi.</t>
+          <t>Tweet mengungkapkan perasaan cemas ("deg-degan") menantikan pengumuman, ini adalah emosi situasional, bukan sentimen tentang universitas itu sendiri.</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tweet berisi iklan promosi kos di dekat Undip. Catatan: TERINDIKASI BUZZER karena bersifat promosi komersial.</t>
+          <t>Tweet ini adalah iklan atau promosi kos di dekat Undip. Meskipun relevan secara lokasi, kontennya komersial. Catatan: TERINDIKASI BUZZER karena sifatnya adalah iklan.</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tweet mengkritik biaya kuliah (UKT dan SPI) di Undip yang dianggap terlalu mahal dan merupakan bentuk kapitalisasi pendidikan.</t>
+          <t>Tweet berisi kritik keras terhadap biaya kuliah di Undip (UKT dan SPI), menyebutnya sebagai "kapitalisasi pendidikan".</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tweet merupakan judul untuk sebuah utas fiksi (Alternate Universe) yang berlatar di Undip.</t>
+          <t>Tweet ini adalah bagian dari fiksi penggemar (AU) yang membayangkan seorang idola K-pop sebagai mahasiswa Undip, bersifat netral dan kreatif.</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tweet merupakan bagian dari konten fiksi (Alternate Universe) yang menyebutkan karakter sebagai mahasiswa Undip.</t>
+          <t>Tweet ini adalah bagian dari fiksi penggemar (AU), menggambarkan suasana fiktif yang melibatkan idola K-pop sebagai mahasiswa Undip.</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan jadwal ospek Undip yang dianggap terlalu cepat dengan nada negatif.</t>
+          <t>Tweet mengeluh tentang jadwal ospek Undip yang dianggap terlalu cepat ("parah si"), menunjukkan ketidaksukaan.</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan netral mengenai kelulusan seseorang di Undip.</t>
+          <t>Tweet berupa pertanyaan sederhana untuk mengonfirmasi kelulusan seseorang di Undip.</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi mengenai ketersediaan ATM di sekitar kampus Undip.</t>
+          <t>Tweet memberikan informasi objektif tentang ketersediaan ATM di sekitar kampus Undip.</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan bahwa Psikologi Undip adalah tujuan yang diinginkan, menyiratkan sentimen positif.</t>
+          <t>Tweet menyatakan bahwa Psikologi Undip adalah tujuannya, menunjukkan bahwa prodi tersebut sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan harapan positif agar bisa lolos seleksi kemitraan Undip.</t>
+          <t>Tweet mengungkapkan harapan agar bisa sama-sama lolos seleksi di Undip, menunjukkan sentimen positif.</t>
         </is>
       </c>
     </row>
@@ -1348,12 +1348,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan perasaan pasrah karena Undip bukan pilihan pertama, menunjukkan sentimen yang kurang positif.</t>
+          <t>Tweet menceritakan pengalaman pribadi menerima Undip setelah gagal di UGM. Sentimennya campur aduk antara pasrah dan menerima, sehingga secara keseluruhan netral terhadap Undip.</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tweet berisi permintaan interaksi personal yang menyebutkan konteks 'base undip' secara netral.</t>
+          <t>Tweet adalah pesan pribadi yang merujuk pada interaksi di "base Undip", bersifat transaksional.</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tweet menggambarkan Undip sebagai 'mimpi yang sulit digapai', menunjukkan bahwa Undip sangat diinginkan dan bernilai positif.</t>
+          <t>Tweet menggambarkan Undip sebagai universitas yang sulit ditembus, yang secara tidak langsung memposisikannya sebagai institusi berkualitas dan sangat diminati.</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan harapan baik agar seseorang menjadi mahasiswa baru Undip.</t>
+          <t>Tweet mengungkapkan harapan dan doa agar seseorang menjadi mahasiswa baru Undip.</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan semangat dan doa agar lolos seleksi ujian mandiri Undip.</t>
+          <t>Tweet memberikan semangat dan doa agar seseorang lolos ujian masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tweet menyatakan kegiatan personal di sekitar area Undip secara netral.</t>
+          <t>Tweet hanya menyatakan kebiasaan pribadi untuk berkeliling kampus Undip, tanpa sentimen.</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan kemarahan pada orang yang tidak bersyukur diterima di Undip, yang secara implisit meninggikan nilai Undip.</t>
+          <t>Tweet menunjukkan kemarahan pada orang yang tidak bersyukur masuk Undip, yang secara implisit sangat menjunjung tinggi dan menganggap Undip sangat berharga.</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip dalam daftar pilihan studi arsitektur tanpa sentimen.</t>
+          <t>Tweet hanya berisi daftar pilihan jurusan dan universitas, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tweet menyatakan secara langsung bahwa kuliah di Undip memiliki benefit besar, yaitu lulusannya cepat dapat pekerjaan.</t>
+          <t>Tweet memberikan testimoni positif tentang manfaat berkuliah di Undip, terutama dalam hal prospek kerja yang cepat.</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa 'gagal move on' (gamon) dari Undip, yang menunjukkan kekecewaan dan kesedihan.</t>
+          <t>Tweet mengungkapkan perasaan "gagal move on" (gamon) dari Undip, menunjukkan betapa universitas tersebut sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -1568,12 +1568,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan perasaan 'gagal move on' (gamon) dan kekecewaan karena tidak bisa kuliah di Undip.</t>
+          <t>Tweet menunjukkan solidaritas dalam perasaan "gagal move on" dari Undip, memperkuat citra Undip sebagai universitas idaman.</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tweet menyampaikan opini positif populer bahwa lulusan Undip lebih mudah mencari kerja.</t>
+          <t>Tweet membagikan persepsi positif bahwa lulusan Undip lebih mudah mencari kerja, yang mengangkat reputasi universitas.</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tweet informatif dari organisasi kemahasiswaan (KSR PMI FKM Undip).</t>
+          <t>Tweet adalah unggahan dari akun organisasi mahasiswa (KSR PMI FKM Undip) yang bersifat informatif dan promosi internal.</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tweet menyampaikan kabar bahagia mengenai wisuda alumni FKM Undip dari sebuah UKM.</t>
+          <t>Tweet dari akun organisasi mahasiswa yang memberitakan kabar gembira kelulusan alumninya, bernada positif dan merayakan.</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi mengenai kondisi mahasiswa baru Undip yang belum mendapat tugas.</t>
+          <t>Tweet menjelaskan situasi mahasiswa baru Undip yang belum mendapat tugas, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tweet merupakan pernyataan singkat dan netral yang merujuk pada status sebagai maba Undip.</t>
+          <t>Tweet adalah balasan singkat yang mengonfirmasi suatu informasi terkait mahasiswa baru Undip, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman pribadi yang menyenangkan ketika berada di lingkungan sekitar Undip.</t>
+          <t>Tweet menceritakan pengalaman pribadi yang lucu saat mencari kos untuk adiknya yang akan kuliah di Undip. Fokus utama cerita adalah tentang penampilan penulis, bukan tentang Undip.</t>
         </is>
       </c>
     </row>
@@ -1722,12 +1722,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tweet memberikan klarifikasi informasi mengenai lokasi asrama, membedakannya dari area Undip.</t>
+          <t>Tweet ini mengklarifikasi bahwa lokasi yang dibicarakan adalah asrama UNNES, bukan kos di dekat UNDIP.</t>
         </is>
       </c>
     </row>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan mengenai jadwal pengumuman Undip, bersifat informatif.</t>
+          <t>Tweet mengungkapkan kebingungan dan sedikit keluhan ("kok tiba-tiba") tentang perubahan jadwal pengumuman di situs web Undip.</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tweet berisi harapan yang menyiratkan kritik agar Undip tidak lagi memberikan informasi secara mendadak.</t>
+          <t>Tweet berisi harapan agar Undip tidak lagi memberikan pengumuman mendadak, yang merupakan kritik implisit terhadap kebiasaan universitas.</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan harapan positif agar teman-temannya lolos seleksi ujian mandiri Undip.</t>
+          <t>Tweet berisi doa dan harapan agar seseorang lolos ujian masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tweet merupakan tautan dan kontak personal tanpa konteks langsung ke Undip, meskipun mungkin bagian dari utas.</t>
+          <t>Tweet ini adalah bagian dari sebuah utas informasi yang tidak menyebutkan Undip sama sekali.</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tweet merupakan bagian dari utas informatif tentang makanan, tidak menyebutkan Undip secara spesifik.</t>
+          <t>Tweet ini adalah bagian dari utas informasi tentang UPF (Ultra Processed Food) tanpa menyebutkan kaitan dengan Undip.</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tweet singkat yang menjawab sebuah pertanyaan dengan menyebutkan nama lokasi di Undip.</t>
+          <t>Tweet adalah balasan singkat yang hanya menyebutkan nama lokasi di Undip.</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tweet pembuka utas informatif tentang makanan yang tidak menyebutkan Undip secara spesifik.</t>
+          <t>Tweet ini adalah judul dari sebuah utas informasi yang tidak memiliki kaitan langsung dengan Undip.</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan singkat yang meminta twibbon Undip.</t>
+          <t>Tweet adalah permintaan twibbon Undip, sebuah permintaan netral.</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan nama Undip dalam sebuah daftar singkat.</t>
+          <t>Tweet hanya berupa daftar universitas, tanpa sentimen.</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tweet berisi permintaan informasi mengenai kos di dekat kampus Vokasi Undip.</t>
+          <t>Tweet berisi permintaan informasi mengenai kos di sekitar kampus vokasi Undip Pleburan.</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tweet memberi saran untuk tetap menjalani kuliah di Undip karena merupakan universitas yang bagus.</t>
+          <t>Tweet memberikan nasihat positif untuk menerima Undip karena merupakan universitas yang bagus.</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan perasaan ragu dan tidak percaya diri untuk bisa masuk Undip.</t>
+          <t>Tweet mengekspresikan kesedihan karena tidak bisa kuliah di Undip yang merupakan kampus impian, menunjukkan betapa Undip sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi bahwa pendaftar Unissula biasanya juga mendaftar ke Undip atau UNS.</t>
+          <t>Tweet memberikan hipotesis tentang proses pendaftaran universitas yang melibatkan Undip, Unissula, dan UNS, bersifat spekulatif dan informatif.</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tweet merupakan judul berita atau artikel mengenai kegiatan mahasiswa Undip.</t>
+          <t>Tweet ini adalah judul berita atau video tentang kegiatan mahasiswa Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tweet merupakan judul berita atau artikel mengenai kunjungan mahasiswa KKN Undip.</t>
+          <t>Tweet adalah judul berita tentang kegiatan KKN mahasiswa Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tweet memberikan komentar negatif bahwa biaya di Undip mahal.</t>
+          <t>Tweet menyatakan bahwa Undip mahal ("mehong"), sebuah keluhan tentang biaya.</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tweet memberikan penilaian positif ("yay anjir") terhadap kontur kampus Undip yang tidak datar.</t>
+          <t>Tweet mengekspresikan kesukaan ("yay anjir") terhadap kontur kampus Undip yang tidak datar, menganggapnya sebagai hal positif.</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat dan harapan dari sebuah organisasi mahasiswa (CFish Undip).</t>
+          <t>Tweet adalah ucapan tahun baru dari sebuah akun organisasi mahasiswa Undip (#CFishUndip), bersifat promosi organisasi.</t>
         </is>
       </c>
     </row>
@@ -2140,12 +2140,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam dari sebuah organisasi kemahasiswaan di Undip.</t>
+          <t>Tweet ucapan selamat tahun baru Islam tanpa menyebutkan Undip atau konteks universitas.</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tweet mencantumkan Undip dalam daftar universitas yang telah menolaknya, menunjukkan kekecewaan.</t>
+          <t>Tweet menceritakan pengalaman ditolak oleh berbagai universitas termasuk Undip, mengungkapkan kekecewaan pribadi.</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tweet berisi pengumuman dari Himpunan Mahasiswa Teknik Geodesi Undip.</t>
+          <t>Tweet adalah unggahan dari himpunan mahasiswa di Undip yang bersifat informatif dan promosi internal.</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip bersama UI dan Unair dalam sebuah daftar.</t>
+          <t>Tweet hanya berisi daftar nama universitas.</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman positif bertukar catatan dengan mahasiswa FH Undip.</t>
+          <t>Tweet menceritakan interaksi positif dengan seorang teman dari FH Undip, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -2250,12 +2250,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan harapan agar Undip bisa memberikan informasi lebih cepat di masa depan.</t>
+          <t>Tweet mengeluhkan proses di Undip yang dianggap lambat atau terlalu santai ("santai undip ni huhu"), menunjukkan sedikit frustrasi.</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan keinginan untuk 'memantaskan diri' masuk Undip, menandakan Undip sebagai tujuan yang berharga.</t>
+          <t>Tweet menunjukkan bahwa melihat Undip di linimasa membuatnya termotivasi untuk "memantaskan diri", yang mengindikasikan pandangan tinggi terhadap universitas.</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip berulang kali tanpa konteks sentimen.</t>
+          <t>Tweet yang menyebutkan "Undip" berulang kali kemungkinan besar sebagai jawaban atas pertanyaan "kampus impian", menunjukkan preferensi yang kuat.</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tweet memberikan rekomendasi tempat makan di area Undip.</t>
+          <t>Tweet berisi rekomendasi tempat makan di dekat Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip bersama UI.</t>
+          <t>Tweet singkat yang hanya menyebutkan UI dan Undip, kemungkinan sebagai pilihan atau daftar.</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi bahwa di Undip banyak terdapat 'mal'.</t>
+          <t>Tweet memberikan informasi faktual bahwa di sekitar Undip ada banyak mal.</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tweet mencantumkan Undip dalam daftar panjang universitas yang telah menolaknya.</t>
+          <t>Tweet mengungkapkan kesedihan ("huhu") karena ditolak oleh banyak universitas, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip dalam daftar universitas.</t>
+          <t>Tweet berupa daftar universitas yang disertai tawa, konteksnya tidak jelas namun tidak menunjukkan sentimen kuat.</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tweet memberikan pujian terhadap mahasiswi Undip ('ayu ayu fak').</t>
+          <t>Tweet memberikan pujian dengan menyatakan bahwa mahasiswa Undip menarik ("ayu ayu").</t>
         </is>
       </c>
     </row>
@@ -2448,12 +2448,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan bahwa jurusan tekpang Undip adalah pilihan pertamanya saat UTBK.</t>
+          <t>Tweet menyatakan bahwa jurusan di Undip adalah pilihan pertamanya saat UTBK, menunjukkan preferensi dan keinginan.</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Tweet merupakan permintaan informasi mengenai kos pria di sekitar Undip.</t>
+          <t>Tweet adalah permintaan informasi kos untuk pria di sekitar Undip.</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi mengenai rute transportasi umum di sekitar Undip.</t>
+          <t>Tweet dari akun Trans Semarang yang memberikan informasi rute menuju Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tweet mengutip pendapat seorang pengamat dari Undip mengenai sebuah fenomena sosial. Catatan: TERINDIKASI BUZZER karena formatnya yang terstruktur dan penggunaan tagar politik.</t>
+          <t>Tweet mengutip seorang pengamat dari Undip untuk mendukung narasi politik. Sentimen terhadap Undip netral, hanya sebagai afiliasi. Catatan: TERINDIKASI BUZZER karena penggunaan hashtag promosi politik (#BangkitBersamaET).</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tweet berupa laporan kegiatan KKN mahasiswa Undip, bersifat informatif.</t>
+          <t>Tweet dari mahasiswa KKN Undip yang melaporkan kegiatan dengan nada positif dan berharap membawa manfaat.</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi penemuan kos di dekat Undip Pleburan.</t>
+          <t>Tweet berisi informasi tentang adanya kos kosong di dekat Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2580,12 +2580,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Tweet membandingkan asrama Unnes dengan Undip, bersifat informatif netral.</t>
+          <t>Tweet membandingkan asrama Undip dengan yang lain dan menyimpulkan bahwa asrama Undip "bagus".</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam dari organisasi mahasiswa (Community of Ocean Modelling Undip).</t>
+          <t>Tweet adalah ucapan selamat tahun baru Islam dari sebuah komunitas mahasiswa di Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tweet berupa permintaan bantuan untuk mengirim menfess ke base Undip.</t>
+          <t>Tweet berisi permintaan bantuan untuk mengirim pesan ke akun menfess Undip.</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Tweet membagikan pengalaman positif bisa masuk Ilkom Undip dengan nilai tertentu, kemungkinan karena ada alumni.</t>
+          <t>Tweet berbagi informasi tentang pengalaman masuk Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman lucu dan gemas dengan kucing di masjid Undip.</t>
+          <t>Tweet mengungkapkan rasa gemas pada kucing di masjid Undip, sebuah anekdot ringan yang menciptakan citra positif tentang lingkungan kampus.</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi rute dari Trans Semarang terkait area dekat Undip.</t>
+          <t>Tweet dari akun Trans Semarang yang memberikan informasi rute transportasi umum, menyebutkan Undip sebagai tujuan.</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan Undip sebagai pilihan pertama, menunjukkan preferensi positif.</t>
+          <t>Tweet menyatakan bahwa Undip adalah universitas pertama (dalam suatu konteks yang tidak jelas tapi positif).</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tweet memberikan nasihat untuk bersyukur diterima di Undip karena Undip adalah universitas yang bagus.</t>
+          <t>Tweet berisi nasihat untuk bersyukur karena Undip adalah universitas yang bagus, membela Undip dari keluhan orang lain.</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tweet berisi pertanyaan perbandingan biaya kuliah antara Unnes dan Undip.</t>
+          <t>Tweet membandingkan biaya kuliah (UKT) antara Unnes dan Undip, sebuah pertanyaan informatif.</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tweet mengklaim ITS lebih baik dari beberapa universitas lain termasuk Undip, merendahkan posisi Undip.</t>
+          <t>Tweet ini membandingkan ITS dengan universitas lain (UB, Unpad, Undip) dengan menyatakan ITS lebih unggul. Fokus utamanya adalah mempromosikan ITS, bukan menilai Undip.</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tweet membandingkan harga tanah di sekitar Unnes dan Undip secara informatif.</t>
+          <t>Tweet membandingkan Unnes dan Undip dari segi harga tanah, namun nadanya merendahkan Unnes ("Unice"), sehingga kurang fokus pada sentimen terhadap Undip. Saya klasifikasikan TIDAK RELEVAN karena fokusnya adalah perdebatan antar kampus.</t>
         </is>
       </c>
     </row>
@@ -2822,12 +2822,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan rasa sedih ketika Undip diremehkan, menandakan sentimen positif dan kebanggaan.</t>
+          <t>Tweet mengungkapkan kesedihan karena Undip "diginiin" (diperlakukan tidak baik), menunjukkan simpati tetapi berakar dari sentimen negatif orang lain terhadap Undip.</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tweet berisi daftar jadwal pengumuman ujian mandiri, termasuk Undip.</t>
+          <t>Tweet berisi daftar jadwal pengumuman universitas, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan mengenai keberadaan organisasi seperti TBM di FK Undip.</t>
+          <t>Tweet berisi pertanyaan tentang keberadaan unit kegiatan seperti Tim Bantuan Medis di FK Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan nama Undip tanpa konteks sentimen.</t>
+          <t>Tweet hanya menyebutkan nama "Undip", tanpa konteks.</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan rasa 'gagal move on' (gamon) dari Undip.</t>
+          <t>Tweet mengungkapkan perasaan "gagal move on" (gamon) dari Undip, menunjukkan kekecewaan pribadi.</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa kapasitas seseorang yang tidak diterima di UI hanya sebatas Undip, bernada merendahkan.</t>
+          <t>Tweet mengkritik seseorang yang tidak bersyukur masuk Undip padahal pilihan awalnya bukan Undip. Ini adalah kritik terhadap individu, bukan sentimen terhadap universitas. Namun, tweet ini juga membela Undip. Karena konteksnya adalah perdebatan, saya klasifikasikan sebagai TIDAK RELEVAN dengan sentimen universitas.</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Tweet memberikan semangat dan afirmasi positif bahwa Undip adalah universitas yang keren dan baik.</t>
+          <t>Tweet memberikan semangat dan afirmasi bahwa Undip adalah universitas yang "keren dan baik".</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip adalah universitas yang bagus dan penerima harus bersyukur.</t>
+          <t>Tweet menegur orang lain untuk bersyukur karena banyak yang ingin masuk Undip, secara tidak langsung memuji Undip.</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman pribadi tersesat di area kampus Undip.</t>
+          <t>Tweet menceritakan pengalaman lucu tersesat di area Undip, ini adalah cerita pribadi yang netral terhadap universitas.</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip lebih mendukung untuk belajar dibandingkan UI.</t>
+          <t>Tweet membandingkan suasana belajar di Undip secara positif dibandingkan dengan UI.</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Tweet menjawab pertanyaan lokasi dengan menyebut 'Bukit Undip'.</t>
+          <t>Tweet hanya menyebut nama lokasi di Undip.</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tweet memberikan stereotip negatif bahwa (kegiatan di) Undip seperti kerja rodi.</t>
+          <t>Tweet menyatakan bahwa di Undip itu "kerja rodi" (kerja paksa), sebuah kritik negatif.</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tweet menjadikan pertemuan dengan seseorang sebagai motivasi untuk masuk Undip.</t>
+          <t>Tweet ini mengubah kritik "kerja rodi" menjadi motivasi positif untuk masuk Undip agar bisa bertemu seseorang.</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tweet berisi pertanyaan mengenai rute BRT ke Undip.</t>
+          <t>Tweet bertanya tentang rute BRT dari Sirojudin ke Undip, pertanyaan informatif.</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan keinginan untuk kuliah S2 di Undip, menunjukkan aspirasi positif.</t>
+          <t>Tweet mengekspresikan harapan untuk bisa kuliah S2 di Undip, menunjukkan keinginan positif.</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tweet meminta saran perbandingan antara fakultas hukum di Unpad, Undip, dan Unair.</t>
+          <t>Tweet meminta saran pilihan antara jurusan Hukum di Unpad, Undip, atau Unair, sebuah pertanyaan netral.</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Tweet berisi daftar tagar dari sebuah organisasi kemahasiswaan IKEMAS UNDIP.</t>
+          <t>Tweet ini hanya berisi hashtag dan nama departemen organisasi mahasiswa di Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tweet berisi pertanyaan 'worth it' atau tidaknya biaya mandiri di Teksip Undip.</t>
+          <t>Tweet bertanya apakah biaya ("j3t1") 150 juta untuk jurusan di Undip sepadan, menyiratkan bahwa biayanya sangat tinggi dan dipertanyakan.</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tweet menyatakan pernah mendaftar Fkg Undip, bersifat informatif.</t>
+          <t>Tweet ini menyatakan alasan memilih kedokteran gigi secara umum dan menyebutkan pernah mendaftar di Undip. Bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa tidak suka atau kekecewaan karena diterima di beberapa universitas top, termasuk Undip.</t>
+          <t>Tweet menyatakan bahwa diterima di jurusan Ilmu Komunikasi di berbagai PTN top termasuk Undip "actually sucks", sebuah ekspresi ketidaksukaan yang jelas.</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan rasa bangga sebagai mahasiswa Undip.</t>
+          <t>Tweet ini menunjukkan kebanggaan setelah masuk Undip, sebagai respons positif.</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tweet menyarankan untuk bersyukur karena banyak yang ingin masuk Undip.</t>
+          <t>Tweet menyarankan orang lain untuk bersyukur karena banyak yang ingin masuk Undip, memuji universitas secara implisit.</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi mengenai jadwal ospek Undip.</t>
+          <t>Tweet menyebutkan rentang tanggal yang berkaitan dengan Undip, kemungkinan jadwal ospek atau kegiatan lain, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa setelah merasakan lingkungan di Undip, ia lebih memilih Undip daripada UI karena sudah nyaman.</t>
+          <t>Tweet berisi testimoni pribadi yang memilih Undip daripada UI karena merasa lebih nyaman dengan sistem dan lingkungannya.</t>
         </is>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tweet memberikan ulasan positif untuk sebuah tempat makan di dekat Undip.</t>
+          <t>Tweet memuji sebuah tempat makan di Undip sebagai "enak banget".</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tweet merekomendasikan sebuah toko di dekat Undip Pandanaran.</t>
+          <t>Tweet memberikan informasi lokasi sebuah toko di dekat Undip Pandanaran.</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan harapan baik agar lolos seleksi kemitraan Undip.</t>
+          <t>Tweet berisi doa dan harapan agar bisa lulus seleksi kemitraan Undip.</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa 'gagal move on' (gamon) yang kuat terhadap Undip.</t>
+          <t>Tweet mengungkapkan perasaan "gagal move on" (gamon) yang kuat dari Undip, menunjukkan kekecewaan karena tidak diterima.</t>
         </is>
       </c>
     </row>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan semangat dan harapan agar lolos seleksi kemitraan Undip.</t>
+          <t>Tweet berisi doa bersama agar lulus seleksi kemitraan Undip.</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan kesulitan mencari kos di sekitar Undip karena sudah penuh.</t>
+          <t>Tweet mengeluhkan sulitnya mencari kos di Undip karena semuanya sudah penuh, menunjukkan frustrasi.</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan nazar yang sangat sungguh-sungguh agar diterima di Undip, menunjukkan keinginan yang kuat.</t>
+          <t>Tweet berisi nazar dan doa yang sangat tulus agar diterima di Undip, menunjukkan keinginan yang sangat kuat.</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3504,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan perasaan tertekan dan sedih karena kesulitan masuk Undip, sementara keluarga besar adalah alumni.</t>
+          <t>Tweet berisi doa dan harapan yang kuat untuk diterima di Undip, meskipun dengan UKT yang besar, menunjukkan betapa berharganya kesempatan tersebut bagi penulis.</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi dari Himpunan Mahasiswa Kimia Universitas Diponegoro.</t>
+          <t>Tweet adalah identitas sebuah departemen di Himpunan Mahasiswa Kimia Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan kegiatan klub catur dari Himpunan Mahasiswa Kimia Undip.</t>
+          <t>Tweet dari organisasi mahasiswa yang mengumumkan kegiatan "Club Catur", bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tweet berisi pertanyaan mengenai jadwal pengumuman UM kemitraan Undip.</t>
+          <t>Tweet pertanyaan tentang jam pengumuman ujian mandiri kemitraan Undip.</t>
         </is>
       </c>
     </row>
@@ -3592,12 +3592,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tweet membandingkan lokasi kos yang dekat dengan Undip dan Polines.</t>
+          <t>Tweet ini membahas perbandingan jarak antara Polines dan Undip, lebih fokus pada lokasi geografis daripada sentimen.</t>
         </is>
       </c>
     </row>
@@ -3614,12 +3614,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Tweet membandingkan harga kos di Unnes dengan di Undip.</t>
+          <t>Tweet ini membandingkan harga kos di Unnes dan Undip, dengan fokus utama pada Unnes.</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tweet merupakan slogan dari BEM FIB UNDIP 2022.</t>
+          <t>Tweet adalah identitas sebuah bidang di BEM FIB Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Tweet beropini bahwa lulusan dari universitas manapun, termasuk Undip dan UI, akan tetap sulit mendapat kerja jika tidak cekatan.</t>
+          <t>Tweet berisi pendapat sinis bahwa lulusan dari universitas manapun, termasuk Undip dan UI, akan tetap sulit mendapat pekerjaan jika tidak cekatan. Sentimen ini negatif terhadap nilai almamater secara umum.</t>
         </is>
       </c>
     </row>
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Tweet berisi permintaan untuk berinteraksi lebih lanjut mengenai Undip.</t>
+          <t>Tweet berisi permintaan untuk dihubungi secara pribadi (DM) untuk membahas tentang Undip.</t>
         </is>
       </c>
     </row>
@@ -3702,12 +3702,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Tweet membagikan cerita tentang berangkat lebih awal untuk ospek karena mengantar kakak ke Undip.</t>
+          <t>Tweet menceritakan alasan pergi ke Semarang lebih awal karena mengantar saudara ke Undip, dengan nada sedikit mengeluh ("kecepetan").</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman rute perjalanan yang melewati area Undip dan Banyumanik.</t>
+          <t>Tweet menceritakan pengalaman perjalanan di Semarang yang melewati area Undip, bersifat naratif dan netral.</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman personal berinteraksi dengan seseorang yang juga anak Undip.</t>
+          <t>Tweet menceritakan pengalaman pribadi berinteraksi dengan seseorang yang ternyata juga anak Undip, ceritanya netral.</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tweet mengklarifikasi lokasi sebuah kenangan yang ternyata berada di Undip, Semarang.</t>
+          <t>Tweet mengklarifikasi lokasi sebuah kenangan yang ternyata di Undip, Semarang, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Tweet mendukung pilihan untuk masuk Undip karena merupakan universitas bagus (cluster satu).</t>
+          <t>Tweet memberikan afirmasi positif kepada orang lain yang ingin masuk Undip, membela bahwa tidak perlu mendaftar di UI jika memang lebih menyukai Undip.</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tweet melaporkan kegiatan positif berupa pemeriksaan kesehatan gratis oleh PMI bekerja sama dengan Fakultas Kedokteran UNDIP.</t>
+          <t>Tweet dari PMI Semarang yang melaporkan kegiatan positif berupa pemeriksaan kesehatan gratis bersama Fakultas Kedokteran UNDIP.</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Tweet mengkritik orang yang tidak bersyukur diterima di Undip dan menegaskan bahwa banyak orang lain yang gagal masuk.</t>
+          <t>Tweet menegur orang lain untuk bersyukur karena diterima di Undip, sebuah PTN bagus yang banyak ditolak orang.</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip adalah universitas impian ('our dream univ').</t>
+          <t>Tweet menyatakan bahwa Undip adalah universitas impian mereka ("our dream univ").</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tweet menyatakan adanya kerja sama antara Undip dengan Unissula dalam penerimaan mahasiswa.</t>
+          <t>Tweet mengklarifikasi bahwa pendaftaran di Undip memiliki keterkaitan dengan Unissula, sebuah informasi netral.</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Tweet meminta pendapat perbandingan antara jurusan hukum di Undip dan Unpad.</t>
+          <t>Tweet meminta perbandingan antara jurusan hukum di Undip dan Unpad, sebuah pertanyaan netral.</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan karena tidak bisa masuk HI Undip karena alasan transportasi (tidak ada kereta).</t>
+          <t>Tweet mengungkapkan kesedihan karena harus melepaskan Undip karena alasan transportasi (tidak ada kereta), menunjukkan kekecewaan.</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Tweet menjawab pertanyaan dengan menyebutkan Undip.</t>
+          <t>Tweet hanya menyebutkan "undip nih kak" sebagai jawaban, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Tweet memotivasi diri untuk berprestasi di Undip.</t>
+          <t>Tweet bernada menyemangati diri sendiri untuk berprestasi di Undip.</t>
         </is>
       </c>
     </row>
@@ -3988,12 +3988,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan kesedihan personal karena tidak bisa menjadi maba HI Undip.</t>
+          <t>Tweet mengungkapkan kesedihan karena melihat nama temannya sebagai maba HI Undip, menunjukkan bahwa itu adalah posisi yang sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan keterlambatan pemberian almamater oleh Undip.</t>
+          <t>Tweet mengeluhkan lamanya Undip memberikan almamater.</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tweet berisi dugaan bahwa Unissula mendapat limpahan mahasiswa yang tidak lolos Undip/UNS.</t>
+          <t>Tweet berisi spekulasi tentang kerjasama antara Undip, UNS, dan Unissula.</t>
         </is>
       </c>
     </row>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Tweet menyatakan "UNDIP NGERI BGT" yang dalam konteks ini bisa berarti tantangan yang berat atau hal negatif lainnya.</t>
+          <t>Tweet menyatakan Undip "NGERI BGT", yang dalam konteks ini bisa berarti sangat sulit atau menantang, cenderung negatif atau mengintimidasi.</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa bisa masuk Undip saja sudah patut disyukuri.</t>
+          <t>Tweet menegur orang lain dengan mengatakan bahwa bisa masuk Undip saja sudah patut disyukuri.</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Tweet memuji perkembangan Undip dan membandingkannya dengan pengalamannya di masa lalu.</t>
+          <t>Tweet memuji Undip karena lulusannya cepat dapat kerja, bahkan lebih cepat dari era sebelumnya.</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa frustrasi karena sudah ditolak Undip sebanyak tiga kali.</t>
+          <t>Tweet mengungkapkan frustrasi karena sudah ditolak Undip tiga kali, menunjukkan kekecewaan yang mendalam.</t>
         </is>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Tweet berbagi informasi mengenai kemungkinan kerjasama antara Undip dan Unissula untuk penerimaan mahasiswa.</t>
+          <t>Tweet berbagi pengalaman dan spekulasi tentang kerjasama antara Undip dan Unissula dalam proses penerimaan mahasiswa.</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa bulan depan akan mulai kuliah offline di Undip.</t>
+          <t>Tweet memberitahukan bahwa perkuliahan offline di Undip akan dimulai, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Tweet menanyakan kapan twibbon FT Undip akan dirilis, membandingkannya dengan FPIK.</t>
+          <t>Tweet bertanya kapan twibbon untuk fakultas teknik (FT) Undip akan dirilis, sebuah pertanyaan netral.</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Tweet menggunakan istilah "bkn undip nmnya kl tdk dadakan", sebuah kritik terhadap kebiasaan Undip yang sering memberi info mendadak.</t>
+          <t>Tweet menyatakan bahwa "bukan Undip namanya kalau tidak dadakan", sebuah kritik terhadap kebiasaan universitas.</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Tweet menasihati untuk bersyukur karena diterima di Undip, sebuah posisi yang diinginkan banyak orang.</t>
+          <t>Tweet menasihati orang lain untuk bersyukur karena banyak yang menginginkan posisi di Undip, memuji universitas secara implisit.</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Tweet menanyakan rata-rata nilai UTBK untuk bisa lolos akuntansi di UI atau Undip.</t>
+          <t>Tweet menanyakan rata-rata skor UTBK untuk lolos akuntansi di UI dan Undip.</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Tweet informatif mengenai sistem peringatan banjir yang berkaitan dengan Undip. Catatan: TERINDIKASI BUZZER karena penggunaan banyak hashtag generik (duplikat).</t>
+          <t>Tweet berisi pemberitahuan informasi publik dengan hashtag #undip, kemungkinan untuk relevansi lokasi. Catatan: TERINDIKASI BUZZER karena format siaran pers otomatis yang berulang.</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Tweet meminta doa agar lulus seleksi mandiri di UNDIP dan UB.</t>
+          <t>Tweet meminta doa agar lulus mandiri di Undip dan UB, menunjukkan harapan besar pada kedua universitas tersebut.</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Tweet menanyakan informasi mengenai penerima KIP-Kuliah di Undip.</t>
+          <t>Tweet bertanya apakah ada yang lolos KIP-Kuliah di Undip.</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Tweet informasi dari sebuah organisasi kemahasiswaan (KSR PMI FKM Undip).</t>
+          <t>Tweet adalah unggahan dari akun organisasi mahasiswa (KSR PMI FKM Undip) yang bersifat informatif dan promosi internal.</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Tweet dari sebuah himpunan mahasiswa (HMB) tanpa menyebut Undip, berpotensi tidak relevan.</t>
+          <t>Tweet ini hanya berisi atribusi ilustrasi dan nama organisasi mahasiswa tanpa menyebut nama universitas.</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi podcast tanpa menyebutkan Undip secara langsung.</t>
+          <t>Tweet ini penggalan dari utas yang tidak menyebutkan Undip, berisi ajakan untuk mendengarkan podcast.</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Tweet merupakan bagian dari promosi podcast tentang Kampus Merdeka, tidak spesifik ke Undip.</t>
+          <t>Tweet ini adalah bagian dari utas promosi podcast yang topiknya umum (Magang Kampus Merdeka) dan tidak menyebut Undip.</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Tweet memuji Undip yang sering masuk dalam top 3 riset, mengalahkan UGM dan ITB.</t>
+          <t>Tweet memuji Undip karena selalu berada di peringkat top 3 dalam riset, bahkan mengalahkan UGM dan ITB.</t>
         </is>
       </c>
     </row>
@@ -4450,12 +4450,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>TIDAK RELEVAN</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Tweet pembuka untuk promosi podcast yang topiknya umum (Kampus Merdeka).</t>
+          <t>Tweet ini adalah pembuka dari utas promosi podcast sebuah organisasi mahasiswa, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip memiliki pengaruh yang besar.</t>
+          <t>Tweet menyatakan bahwa Undip "emang pengaruh banget", menunjukkan dampak atau reputasi positif.</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa sakit hati dan kekecewaan karena ditolak oleh Undip.</t>
+          <t>Tweet mengungkapkan kekecewaan mendalam karena ditolak oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Tweet menceritakan teman yang termotivasi masuk hukum Undip setelah menonton drama Korea.</t>
+          <t>Tweet menceritakan teman yang termotivasi masuk Hukum Undip karena menonton drama, sebuah asosiasi positif.</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Tweet berbagi pengalaman serupa saat gagal masuk Undip dan Unnes, lalu bersyukur meski kuliah di swasta.</t>
+          <t>Tweet menceritakan pengalaman orang tua yang mengadakan syukuran saat anaknya diterima di Undip, menunjukkan kebanggaan dan kebahagiaan.</t>
         </is>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam secara umum.</t>
+          <t>Tweet ini berisi ucapan selamat tahun baru Islam dengan pesan umum, tanpa menyebut Undip.</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam dari sebuah organisasi mahasiswa.</t>
+          <t>Tweet adalah unggahan dari akun organisasi mahasiswa yang mengucapkan selamat tahun baru Islam, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Tweet memberikan nasihat untuk memanfaatkan kelebihan yang ada di Undip dan tidak membandingkannya dengan UI, karena Undip juga kampus yang bagus.</t>
+          <t>Tweet memberikan nasihat untuk fokus pada kelebihan Undip daripada membandingkannya dengan UI, dan menegaskan bahwa Undip adalah kampus yang bagus.</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Tweet menjual tiket untuk acara MANOOVER UNDIP.</t>
+          <t>Tweet ini menjual tiket untuk acara "MANOOVER UNDIP", ini adalah iklan komersial. Catatan: TERINDIKASI BUZZER karena bersifat penjualan tiket.</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan kesedihan karena pernah ditolak oleh Undip.</t>
+          <t>Tweet mengungkapkan kesedihan karena ditolak oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Tweet bertanya perbandingan antara teknik geologi UPN dan Undip, dengan kecenderungan memilih UPN.</t>
+          <t>Tweet bertanya apakah Teknik Geologi UPN lebih baik dari Undip, sebuah pertanyaan perbandingan yang netral.</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan pengalaman wisuda di Undip yang daring sementara sidang luring.</t>
+          <t>Tweet mengeluhkan keputusan Undip yang mengadakan wisuda online setelah sidang offline, menunjukkan kekecewaan.</t>
         </is>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kebingungan antara menyukai Undip tapi 'gamon' dengan Unnes.</t>
+          <t>Tweet mengungkapkan kebingungan dan perasaan "gamon" (gagal move on) terhadap Unnes meskipun sudah menjadi mahasiswa Undip.</t>
         </is>
       </c>
     </row>
@@ -4736,12 +4736,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang fasilitas asrama di Undip.</t>
+          <t>Tweet ini bertanya apakah asrama Undip memiliki fasilitas tertentu, namun ini adalah bagian dari percakapan yang fokusnya membandingkan dengan kampus lain (Unnes).</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Tweet bertanya pilihan studi seseorang antara ITB atau Undip.</t>
+          <t>Tweet bertanya tentang pilihan jurusan antar universitas.</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Tweet menggunakan frasa "buaya undip" dengan konotasi negatif.</t>
+          <t>Tweet menyatakan "serem banget buaya Undip", sebuah stereotip negatif.</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Tweet menceritakan dilema memilih antara Unair (pilihan orang tua) dan Undip.</t>
+          <t>Tweet menceritakan dilema memilih antara Unair dan Undip, dengan pertimbangan dari orang tua.</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Tweet berisi manifestasi dan doa agar menjadi maba UNDIP di tahun 2024.</t>
+          <t>Tweet berisi manifestasi dan doa agar menjadi mahasiswa baru Undip pada tahun 2024.</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Tweet menanyakan informasi resmi mengenai pembukaan UM S1 gelombang 3 di Undip.</t>
+          <t>Tweet bertanya kepada akun resmi Undip apakah ada pendaftaran gelombang 3, sebuah pertanyaan informatif.</t>
         </is>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan karena ditolak Uny dua kali, dan akan mencoba Undip tahun depan sebagai alternatif.</t>
+          <t>Tweet mengungkapkan kekecewaan karena ditolak berkali-kali oleh Unnes dan akan mencoba Undip tahun depan. Sentimen dominannya adalah kekecewaan.</t>
         </is>
       </c>
     </row>
@@ -4895,7 +4895,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Tweet menanyakan kapan twibbon FT Undip akan dirilis, membandingkannya dengan FPIK (duplikat).</t>
+          <t>Tweet bertanya tentang kapan twibbon Fakultas Teknik Undip akan dirilis.</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan kecenderungan ke Undip tapi merasa ragu karena sudah dua kali ditolak, menyiratkan perasaan negatif.</t>
+          <t>Tweet mengungkapkan kecenderungan pribadi untuk memilih Undip tetapi disertai emoticon sedih, menunjukkan adanya dilema atau keraguan.</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip juga merupakan universitas yang bagus.</t>
+          <t>Tweet memberikan afirmasi bahwa Undip adalah universitas yang bagus.</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan keraguan dan perasaan sakit hati karena sudah ditolak Undip dua kali.</t>
+          <t>Tweet mengungkapkan keraguan untuk mencoba Undip lagi setelah dua kali ditolak, menunjukkan keputusasaan.</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tweet bernada humor yang menyatakan maba universitas top (termasuk Undip) sedang santai.</t>
+          <t>Tweet bernada humoris yang menyatakan bahwa mahasiswa ITB, Unpad, dan Undip sedang santai (belum ada tugas), bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran positif untuk tetap di Undip dan mengejar UI untuk S2.</t>
+          <t>Tweet memberikan nasihat untuk bersyukur karena Undip adalah kampus yang bagus dan menyarankan untuk mengejar UI di jenjang S2.</t>
         </is>
       </c>
     </row>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan Undip sebagai tujuan jika tidak berhasil mendapatkan pilihan utama.</t>
+          <t>Tweet hanya menyebutkan "undip maaa", kemungkinan sebagai jawaban atas sebuah pertanyaan pilihan.</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tweet memberikan afirmasi positif bahwa memiliki almet Undip adalah sebuah kebanggaan.</t>
+          <t>Tweet menghibur seseorang dengan mengatakan bahwa setidaknya mereka punya almamater Undip, yang dianggap sebagai sebuah kebanggaan.</t>
         </is>
       </c>
     </row>
@@ -5066,12 +5066,12 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tweet membandingkan biaya hidup di Semarang dekat Undip.</t>
+          <t>Tweet ini membandingkan biaya hidup atau kuliah dengan kampus lain, menyatakan di tempat lain lebih murah dibanding Undip, namun fokus utamanya adalah tentang "tidak punya uang".</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tweet memuji Undip sebagai universitas yang 'cakep' dan diinginkan.</t>
+          <t>Tweet mengungkapkan keinginan kuat untuk bisa berkuliah di Undip ("mw bgt disitu").</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tweet menanyakan jadwal pengumuman UM kemitraan Undip gelombang 2.</t>
+          <t>Tweet bertanya tentang jadwal pengumuman ujian mandiri kemitraan Undip.</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tweet mengkritik sistem UKT di UI yang dianggap tidak transparan dibandingkan dengan pengalamannya di Undip.</t>
+          <t>Tweet ini adalah bagian dari perdebatan sengit tentang pengisian data UKT. Penulis mengklaim data adiknya di Undip jujur, tetapi mengkritik sistem UKT UI. Sentimen terhadap Undip netral, fokus kritik ke UI.</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Tweet menyarankan untuk tetap menjalani kuliah di Undip karena sudah merupakan universitas yang sangat bagus.</t>
+          <t>Tweet menyarankan seseorang untuk menjalani kuliah di Undip karena sudah merupakan pilihan yang sangat bagus.</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tweet berisi candaan atau cerita fiksi yang menyebutkan lokasi hutan Undip.</t>
+          <t>Tweet ini adalah balasan humoris dan tidak jelas yang kebetulan menyebut "hutan undip", tidak relevan dengan konteks universitas.</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat wisuda dari Himpunan Mahasiswa Peternakan Undip.</t>
+          <t>Tweet ucapan selamat wisuda dari akun resmi atau organisasi, merayakan lulusan Undip dengan nada bangga.</t>
         </is>
       </c>
     </row>
@@ -5220,12 +5220,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kekhawatiran dan kebutuhan untuk berlatih soal agar bisa lolos FSM UNDIP.</t>
+          <t>Tweet ini mengungkapkan keinginan untuk masuk FSM Undip dan menganggapnya sebagai target yang tinggi dan diminati.</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan bahwa Undip adalah universitas yang sangat diinginkan sehingga akan dikejar melalui semua jalur seleksi jika memungkinkan.</t>
+          <t>Tweet ini membela Undip dengan menyatakan bahwa penulis rela mengikuti semua jalur seleksi jika diizinkan, menunjukkan betapa Undip sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Tweet meminta foto member NCT Dream yang diedit memakai almet Undip.</t>
+          <t>Tweet adalah permintaan foto anggota NCT Dream yang diedit memakai almamater Undip, sebuah permintaan netral dari penggemar K-pop.</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Tweet memberikan tips mencari kontrakan di sekitar Undip melalui Facebook.</t>
+          <t>Tweet memberikan saran untuk mencari kos di sekitar Undip melalui Facebook, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Tweet dari sebuah biro di BEM FIB UNDIP.</t>
+          <t>Tweet adalah identitas sebuah biro di BEM FIB Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Tweet berisi harapan dan doa yang sangat kuat untuk diterima di Undip.</t>
+          <t>Tweet mengekspresikan cinta dan harapan yang sangat besar untuk diterima di Undip besok.</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Tweet mengkritik sistem penentuan UKT di UI dan membandingkannya dengan Undip.</t>
+          <t>Tweet mengkritik stereotip bahwa UKT UI murah, dengan memberikan contoh teman yang hampir melepaskan Undip dan akhirnya kecewa. Ini adalah kritik terhadap sistem UI, bukan Undip.</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Tweet menyatakan kekaguman terhadap seseorang yang bisa masuk Undip.</t>
+          <t>Tweet memuji seseorang dengan mengatakan "Kren bener bisa msup undip" (Keren benar bisa masuk Undip).</t>
         </is>
       </c>
     </row>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan rasa kesal ('salty') terhadap orang yang tidak bersyukur diterima di Undip, karena Undip adalah kampus yang bagus.</t>
+          <t>Tweet menunjukkan rasa kesal ("salty") terhadap seseorang yang tidak mensyukuri kelulusannya di Undip, sebuah universitas yang dianggap "oke anjirrr".</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa banyak mutualnya adalah anak Undip.</t>
+          <t>Tweet hanya sebuah observasi bahwa banyak mutualnya adalah anak Undip.</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Tweet menyayangkan mahasiswa Undip yang belum mendapatkan almamater.</t>
+          <t>Tweet berisi sindiran kasihan kepada anak Undip yang belum mendapat almamater.</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran untuk tetap fokus kuliah di Undip sambil tetap mencoba tes UI, tanpa mengabaikan studi saat ini.</t>
+          <t>Tweet memberikan nasihat bijak untuk tetap menjalani kuliah di Undip dengan baik sambil tetap mencoba meraih impian di UI.</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Tweet menyarankan untuk bersyukur karena diterima di Undip dan menyarankan untuk tetap mencoba mendaftar UI di tahun-tahun berikutnya.</t>
+          <t>Tweet menasihati seseorang untuk menerima takdirnya di Undip karena itu adalah pilihan terbaik dari Tuhan, sambil tetap mengizinkan untuk mencoba UI lagi.</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Tweet mengkritik orang yang tidak bersyukur diterima di Undip, menegaskan bahwa Undip adalah kampus top yang banyak diminati.</t>
+          <t>Tweet menegur orang lain dengan sangat keras karena tidak bersyukur diterima di Undip, sebuah kampus top. Ini sangat menjunjung tinggi nilai Undip.</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Tweet berisi ilustrasi tanpa konteks langsung ke Undip, meskipun dari Himpunan Mahasiswa Biologi.</t>
+          <t>Tweet ini hanya berisi atribusi ilustrasi dan nama organisasi mahasiswa tanpa menyebutkan nama universitas.</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan Selamat Tahun Baru Islam dari Himpunan Mahasiswa Biologi Undip.</t>
+          <t>Tweet adalah unggahan dari akun organisasi mahasiswa yang mengucapkan selamat tahun baru Islam, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan semangat dengan harapan agar Undip 'menotis' temannya.</t>
+          <t>Tweet berisi ucapan terima kasih dan harapan agar temannya diterima di Undip, menunjukkan dukungan.</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan harapan untuk mendapatkan email PIN untuk akun SOS Undip.</t>
+          <t>Tweet mengungkapkan harapan untuk menerima email pin dari Undip, sebuah hal teknis yang netral.</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa heran mengenai mahasiswa FK Undip yang bermain aplikasi anonim.</t>
+          <t>Tweet mengungkapkan keraguan apakah mahasiswa FK Undip benar-benar bermain aplikasi anonim, sebuah pertanyaan netral.</t>
         </is>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Tweet memberikan rekomendasi warteg di dekat bundaran Undip.</t>
+          <t>Tweet memberikan rekomendasi tempat makan di sekitar bundaran Undip.</t>
         </is>
       </c>
     </row>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan perasaan 'salting' atau gugup karena berinteraksi dengan anak Undip.</t>
+          <t>Tweet mengungkapkan perasaan senang atau "salting" karena berinteraksi dengan anak Undip, sebuah asosiasi positif.</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran untuk memilih Undip.</t>
+          <t>Tweet memberikan saran "undip aja undip" tanpa konteks yang jelas, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Tweet dari Himpunan Mahasiswa Farmasi Undip yang mengumumkan sebuah kegiatan.</t>
+          <t>Tweet dari Himpunan Mahasiswa Farmasi Undip yang mengumumkan sebuah program atau kegiatan internal.</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Tweet memperkenalkan narasumber dari sebuah acara yang diadakan oleh BEM FEB Undip.</t>
+          <t>Tweet mengumumkan nama pembicara dan moderator dalam sebuah acara yang diselenggarakan oleh BEM FEB Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Tweet mengkritik keras orang yang tidak bersyukur diterima di Undip, menekankan bahwa Undip adalah kampus top 10.</t>
+          <t>Tweet sangat memuji Undip dan mengkritik keras orang yang tidak bersyukur diterima di sana. Menegaskan Undip sebagai kampus 10 besar yang sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran untuk melanjutkan ke S2 di UI jika masih ingin, karena Undip sudah merupakan pilihan yang bagus.</t>
+          <t>Tweet memberikan saran positif bahwa S2 bisa menjadi kesempatan untuk masuk UI, sambil menyiratkan bahwa Undip untuk S1 sudah merupakan pilihan yang bagus.</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi mengenai Tahun Baru Islam dari LPM OPINI FISIP UNDIP.</t>
+          <t>Tweet dari LPM OPINI FISIP Undip yang mengucapkan selamat tahun baru Islam, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Tweet menanyakan jadwal pengumuman Undip kemitraan gelombang 2.</t>
+          <t>Tweet bertanya tentang jam pengumuman undip kemitraan gelombang 2.</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan Selamat Tahun Baru Islam dari Asosiasi Matematika Terapan Undip.</t>
+          <t>Tweet dari Asosiasi Matematika Terapan Undip yang mengucapkan selamat tahun baru Islam, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Tweet berisi cerita mimpi yang lokasinya berada di FIB Undip.</t>
+          <t>Tweet menceritakan mimpi aneh yang berlatar di FIB Undip, bersifat naratif dan netral.</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Tweet bertanya apakah di Undip terdapat danau.</t>
+          <t>Tweet berupa pertanyaan apakah di Undip ada danau, sebuah pertanyaan informatif.</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan niat untuk pergi ke Undip untuk 'mengikhlaskan' semua angan-angan, menunjukkan kesedihan dan kekecewaan.</t>
+          <t>Tweet mengungkapkan niat untuk pergi ke Undip untuk "mengikhlaskan semua angan-angan", menunjukkan kesedihan dan kekecewaan karena tidak diterima.</t>
         </is>
       </c>
     </row>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Tweet menceritakan mimpi tentang pilihan universitas, termasuk Undip.</t>
+          <t>Tweet ini mengungkapkan kesedihan karena memikirkan tentang UGM/Undip sebagai rencana cadangan, yang berujung pada mimpi buruk.</t>
         </is>
       </c>
     </row>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan sedikit penyesalan karena tidak mengambil Undip.</t>
+          <t>Tweet mengungkapkan penyesalan karena tidak memilih Undip, menunjukkan bahwa Undip adalah pilihan yang baik.</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman positif saat orang lain kagum ketika mengetahui ia kuliah di Undip.</t>
+          <t>Tweet menceritakan kekaguman seorang kerabat yang langsung mengenali Undip, menunjukkan reputasi positif universitas.</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan rasa bangga karena Undip dikenal luas.</t>
+          <t>Tweet ini menunjukkan rasa bangga karena Undip dikenal luas bahkan oleh generasi yang lebih tua.</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Tweet memberikan nasihat untuk menerima takdir berkuliah di Undip karena itu adalah pilihan terbaik dari Tuhan.</t>
+          <t>Tweet memberikan nasihat untuk menerima takdir di Undip karena itu adalah pilihan Tuhan, yang secara tidak langsung memposisikan Undip sebagai tempat yang baik.</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Tweet dari organisasi KSPM FEB UNDIP.</t>
+          <t>Tweet dari KSPM FEB Undip yang berisi informasi kontak dan promosi internal.</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Tweet memberikan buku tentang Ujian Masuk Undip secara gratis.</t>
+          <t>Tweet menawarkan buku Ujian Masuk Undip secara gratis (giveaway), bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Tweet menceritakan perjalanan pilihan studi dari Psikologi Undip ke Manajemen UM.</t>
+          <t>Tweet hanya menyebutkan urutan pilihan jurusan di Undip dan UM, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Tweet meminta doa agar lulus UM Undip.</t>
+          <t>Tweet meminta doa agar lulus ujian mandiri Undip, menunjukkan harapan yang besar.</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan Undip sebagai jawaban singkat.</t>
+          <t>Tweet hanya menyebutkan "kandani undip og" (dibilangin Undip kok), sebuah respons singkat yang netral.</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Tweet mengakui tidak paham rute ke bukit Undip.</t>
+          <t>Tweet mengungkapkan kebingungan dalam memahami rute di bukit Undip, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Tweet mendukung komentar pengamat dari Undip terkait Citayam Fashion Week. Catatan: TERINDIKASI BUZZER karena format terstruktur dan tagar.</t>
+          <t>Tweet mengutip pengamat tata kota dari Undip untuk mendukung narasi politik. Sentimen terhadap Undip netral. Catatan: TERINDIKASI BUZZER karena penggunaan hashtag promosi politik dan konten terkoordinasi.</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kemarahan kepada orang yang tidak bersyukur diterima di Undip, namun menggunakan bahasa yang sangat kasar.</t>
+          <t>Tweet dengan marah besar mengkritik seseorang yang tidak bersyukur diterima di Undip, menggunakan bahasa kasar. Meskipun tujuannya membela Undip, sentimen dominan dari tweet ini adalah kemarahan.</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Tweet mengakui bahwa meskipun awalnya bukan pilihan utama, sekarang sudah 'love' dengan Undip.</t>
+          <t>Tweet menceritakan pengalaman pribadi yang awalnya menyesal tidak memilih Undip di SNMPTN, namun sekarang sudah "love sama Undip".</t>
         </is>
       </c>
     </row>
@@ -6232,12 +6232,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Tweet bertanya kepada audiens siapa yang mengisi pilihan pertama di Undip meskipun bukan universitas impian.</t>
+          <t>Tweet ini merupakan pengakuan bahwa penulis mengisi Undip sebagai pilihan pertama meskipun sebenarnya tidak mau, namun konteksnya adalah penulis sekarang mencintai Undip.</t>
         </is>
       </c>
     </row>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa syukur yang mendalam karena bisa menjadi mahasiswa baru Undip.</t>
+          <t>Tweet mengungkapkan rasa syukur yang mendalam karena bisa menjadi mahasiswa baru Undip, melampaui ekspektasi diri sendiri.</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Tweet menceritakan kesedihan karena tidak bisa masuk FSRD ITB dan harus menerima Undip sebagai pilihan kedua, menunjukkan 'susah move on'.</t>
+          <t>Tweet menceritakan kesedihan karena gagal masuk FSRD ITB dan harus menerima Undip sebagai pilihan kedua, menunjukkan kekecewaan karena tidak mendapatkan pilihan pertama.</t>
         </is>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi biografis tentang Ketua KPU yang merupakan mantan dosen di Fakultas Hukum Undip.</t>
+          <t>Tweet memberikan informasi biografi Ketua KPU yang merupakan mantan dosen di Fakultas Hukum Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Tweet memberikan nasihat bijak bahwa yang terpenting bukan almamaternya dan Tuhan menempatkan di Undip karena itu yang terbaik.</t>
+          <t>Tweet memberikan nasihat bijak bahwa yang terpenting bukan almamaternya, melainkan bagaimana memanfaatkan ilmu, dan bahwa Tuhan menempatkan seseorang di Undip karena itu yang terbaik.</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Tweet berisi doa dan harapan agar lulus seleksi beasiswa dan mandiri Undip.</t>
+          <t>Tweet berisi doa dan harapan semoga berhasil dalam dua seleksi terakhir di Undip, menunjukkan harapan yang tinggi.</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa sakit hati karena harus melepaskan Undip demi jurusan yang diinginkan.</t>
+          <t>Tweet mengungkapkan rasa sakit karena harus melepaskan Undip demi jurusan yang diinginkan, menunjukkan kekecewaan.</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Tweet mengkritik seseorang yang tidak bersyukur diterima di Undip, menyebutnya 'kurang bersyukur'.</t>
+          <t>Tweet mengkritik orang lain dengan nada sarkastik karena tidak bersyukur telah diterima di Undip.</t>
         </is>
       </c>
     </row>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Tweet mengafirmasi bahwa orang yang ingin masuk Undip tapi tidak diterima seharusnya tidak membuat orang lain yang diterima merasa bersalah.</t>
+          <t>Tweet ini mengkritik orang yang memilih Undip tetapi sebenarnya menginginkan UI, yang dianggap merugikan orang lain yang benar-benar ingin ke Undip.</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Tweet menceritakan kekaguman terhadap seorang anak dari Padang yang berhasil masuk dan wisuda di Undip.</t>
+          <t>Tweet menceritakan kekaguman pada seorang anak dari Padang yang berhasil masuk dan wisuda di Undip, menunjukkan citra positif universitas.</t>
         </is>
       </c>
     </row>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam dari organisasi mahasiswa.</t>
+          <t>Tweet ini adalah gambar ucapan selamat tahun baru Islam, kemungkinan dari organisasi mahasiswa, tanpa sentimen spesifik tentang universitas.</t>
         </is>
       </c>
     </row>
@@ -6474,12 +6474,12 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa kesal karena banyak orang yang meremehkan Undip, padahal Undip adalah PTN yang bagus.</t>
+          <t>Tweet dengan emosi tinggi menegaskan bahwa PTN bagus bukan hanya UI dan bahwa penulis sangat ingin masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan rasa frustrasi karena telah ditolak oleh Undip sebanyak empat kali.</t>
+          <t>Tweet mengungkapkan frustrasi karena telah ditolak oleh Undip sebanyak empat kali.</t>
         </is>
       </c>
     </row>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Tweet menggunakan bahasa kasar untuk mengkritik orang yang tidak bersyukur diterima Undip, menyebutnya 'otak lu tu ganyampe'.</t>
+          <t>Tweet menghina orang lain dengan kasar, menyiratkan bahwa orang tersebut seharusnya bersyukur diterima di Undip karena tidak cukup pintar untuk UI.</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan dari HMPS Bahasa dan Kebudayaan Jepang Universitas Diponegoro.</t>
+          <t>Tweet dari himpunan mahasiswa di Undip yang bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Hijriah dari sebuah organisasi kemahasiswaan di Undip.</t>
+          <t>Tweet dari sebuah organisasi mahasiswa yang mengucapkan selamat tahun baru Hijriah, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -6589,7 +6589,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan pilihan jurusan di UI dan Undip secara informatif.</t>
+          <t>Tweet menyebutkan pilihan jurusan di UI dan Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Tweet menanyakan jarak sebuah kos ke Undip.</t>
+          <t>Tweet menanyakan jarak sebuah kosan ke Undip, pertanyaan informatif.</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan HI Undip sebagai jurusan yang direkomendasikan oleh gurunya, bernada positif.</t>
+          <t>Tweet ini menyatakan bahwa Undip adalah pilihan yang bagus ("keren"), termotivasi oleh perkataan seorang guru.</t>
         </is>
       </c>
     </row>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Tweet bertanya apakah almamater Undip akan dibagikan pada semester 2.</t>
+          <t>Tweet bertanya apakah almamater Undip akan dibagikan pada semester 2, sebuah pertanyaan informatif.</t>
         </is>
       </c>
     </row>
@@ -6694,12 +6694,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan bahwa Undip juga berada di pojok, dalam konteks lokasi.</t>
+          <t>Tweet ini adalah bagian dari percakapan yang menyebut Undip, namun fokusnya adalah perdebatan tentang lokasi di Semarang ("pojok").</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan rasa 'gamon' atau gagal move on dari Undip.</t>
+          <t>Tweet mengungkapkan perasaan "gamon" atau belum bisa move on dari Undip, menunjukkan betapa Undip sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Tweet berisi harapan dan doa agar bisa bertemu di Undip.</t>
+          <t>Tweet mengungkapkan harapan untuk bisa bertemu dengan orang lain di Undip, menunjukkan sentimen positif.</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip adalah universitas impiannya.</t>
+          <t>Tweet menyatakan bahwa Undip adalah universitas impian penulis.</t>
         </is>
       </c>
     </row>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Tweet berisi respons yang sangat kasar dan agresif terhadap seseorang yang tidak bersyukur diterima di Undip.</t>
+          <t>Tweet dengan kasar mengkritik orang yang tidak bersyukur diterima di Undip, sebuah PTN dengan akreditasi A.</t>
         </is>
       </c>
     </row>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Tweet bertanya apakah seorang profesor masih mengajar di Undip.</t>
+          <t>Tweet bertanya kepada akun resmi apakah dosen tertentu masih mengajar di Undip.</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Tweet dari Senat Mahasiswa FISIP Undip.</t>
+          <t>Tweet adalah identitas sebuah badan di Senat Mahasiswa FISIP Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -6853,7 +6853,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam dari sebuah organisasi di Undip.</t>
+          <t>Tweet ucapan selamat tahun baru Islam dari sebuah organisasi mahasiswa, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -6870,12 +6870,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Tweet berisi kekhawatiran mengenai tugas ospek Undip yang mungkin diberikan secara mendadak.</t>
+          <t>Tweet mengungkapkan kekhawatiran tentang ospek di Undip yang belum ada kabar, takut akan ada tugas mendadak.</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Tweet berisi ucapan selamat Tahun Baru Islam dari Senat Mahasiswa FSM Undip.</t>
+          <t>Tweet ucapan selamat tahun baru Islam dari Senat Mahasiswa FSM Undip, bersifat promosi internal.</t>
         </is>
       </c>
     </row>
@@ -6919,7 +6919,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan lokasi kos yang berada di Banjarsari, Undip.</t>
+          <t>Tweet hanya menyebutkan lokasi kost, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6941,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Tweet menasihati orang lain untuk bersyukur karena Undip adalah kampus yang bagus dan banyak diminati.</t>
+          <t>Tweet mengkritik orang lain karena tidak bersyukur diterima di Undip, menegaskan bahwa Undip adalah kampus yang bagus dan banyak diinginkan.</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa 'gamon' dengan Undip karena merupakan universitas yang sangat bagus.</t>
+          <t>Tweet mengungkapkan perasaan "gamon" (gagal move on) dari Undip, menunjukkan betapa universitas tersebut sangat diinginkan.</t>
         </is>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Tweet mengkritik toilet di bandara dengan membandingkannya secara negatif dengan 'cah undip full kuliah lapangan 3 hari', sebuah hinaan yang tidak jelas konteksnya tetapi negatif.</t>
+          <t>Tweet ini berisi hinaan kasar terhadap penampilan mahasiswa Undip, jelas merupakan sentimen negatif.</t>
         </is>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Tweet berisi candaan bahwa almet Undip akan dibagikan saat lulus.</t>
+          <t>Tweet adalah balasan dalam sebuah utas, mengklarifikasi bahwa almamater Undip belum dibagikan.</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan antusiasme untuk berfoto menggunakan almet di patung kuda Undip.</t>
+          <t>Tweet ini adalah balasan humoris dalam sebuah utas tentang menunggu almamater Undip.</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Tweet menegaskan bahwa Undip adalah universitas yang sangat keren dan bukan hanya sekadar 'gapapa banget'.</t>
+          <t>Tweet dengan sangat emosional membela Undip, menyebutnya "KEREN BGT ANJENG" dan menegur orang yang meremehkannya.</t>
         </is>
       </c>
     </row>
@@ -7073,7 +7073,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip memiliki peringkat QS yang bagus (nomor 8), yang merupakan sebuah pernyataan positif tentang prestasi universitas.</t>
+          <t>Tweet ini menunjukkan kebanggaan karena universitasnya memiliki peringkat QS yang setara dengan Undip, secara tidak langsung mengakui reputasi positif Undip.</t>
         </is>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Tweet memuji Undip sebagai universitas "Top 10 indo" dan mendorong orang lain untuk bersyukur diterima di sana, menunjukkan kebanggaan dan sentimen positif.</t>
+          <t>Tweet ini memuji Undip sebagai universitas Top 10 di Indonesia dan memberikan semangat kepada orang lain untuk bersyukur bisa berkuliah di sana.</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Tweet ini hanya menceritakan pengalaman faktual bahwa adiknya tidak diterima di Undip, tanpa memberikan penilaian positif atau negatif terhadap universitas.</t>
+          <t>Tweet ini hanya menyampaikan informasi faktual bahwa adiknya tidak diterima di Undip dan Unnes, tanpa disertai sentimen positif atau negatif terhadap universitas.</t>
         </is>
       </c>
     </row>
@@ -7139,7 +7139,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan kondisi geografis di sekitar area Undip yang melelahkan ("capek") dan merasa tidak sepadan ("ga worth it").</t>
+          <t>Tweet ini mengeluhkan kondisi geografis di sekitar area kampus Undip yang melelahkan ('capek') dan dianggap tidak sepadan ('ga worth it').</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan keinginan atau harapan untuk bisa berkuliah di Undip, yang mencerminkan pandangan positif terhadap universitas.</t>
+          <t>Tweet ini mengungkapkan keinginan yang kuat untuk bisa berkuliah di Undip, menunjukkan sentimen positif dan memandang Undip sebagai tempat yang diinginkan.</t>
         </is>
       </c>
     </row>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Tweet ini adalah pertanyaan klarifikasi yang netral untuk memastikan nama institusi, tanpa ada sentimen apa pun.</t>
+          <t>Tweet ini merupakan pertanyaan klarifikasi untuk memastikan nama institusi (Undip, Poltek, atau Polin) tanpa ada sentimen di dalamnya.</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan keinginan yang kuat untuk masuk Undip, menandakan pandangan positif terhadap universitas.</t>
+          <t>Tweet ini menunjukkan keinginan yang besar untuk masuk Undip, menandakan pandangan positif terhadap universitas tersebut.</t>
         </is>
       </c>
     </row>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Tweet ini berisi doa dan harapan baik agar seseorang diterima di Undip, mencerminkan dukungan dan sentimen positif.</t>
+          <t>Tweet ini berisi doa dan harapan positif agar seseorang diterima di Undip, mencerminkan pandangan bahwa Undip adalah tujuan yang baik.</t>
         </is>
       </c>
     </row>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Tweet menyatakan secara eksplisit bahwa Undip "mantep" (bagus) dan menyarankan orang lain untuk bersyukur, yang merupakan pujian langsung.</t>
+          <t>Tweet ini membela Undip dengan menyatakan bahwa universitas tersebut 'mantep' (bagus) dan menyarankan orang lain untuk bersyukur, menunjukkan sentimen positif.</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Tweet secara jelas menyatakan bahwa "undip itu bagus" dan menyoroti peluang yang ada di sana, memberikan penilaian positif yang kuat.</t>
+          <t>Tweet ini secara eksplisit menyatakan bahwa "Undip itu bagus" dan memberikan nasihat suportif, menunjukkan sentimen positif yang jelas.</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Tweet ini adalah observasi bernada candaan tentang tidak adanya danau di Undip, yang tidak dapat diklasifikasikan sebagai keluhan serius (negatif) atau pujian (positif).</t>
+          <t>Tweet ini berisi pernyataan faktual yang disampaikan dengan nada bercanda mengenai tidak adanya danau di Undip, tanpa mengandung sentimen positif atau negatif yang kuat.</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan tentang rute dari area Undip. Meskipun menggunakan Undip sebagai titik acuan, isinya netral dan hanya mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan yang bersifat informatif untuk menanyakan rute transportasi dari area Undip, tanpa ada muatan sentimen.</t>
         </is>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Tweet ini memuji Undip dengan menyamakannya dengan UI ("sama bagusnya") dan menyebutnya "ptn top," yang menunjukkan sentimen positif yang kuat.</t>
+          <t>Tweet ini memberikan penilaian positif dengan menyatakan bahwa Undip sama bagusnya dengan UI dan mendorong orang lain untuk bersyukur.</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Tweet ini secara singkat dan langsung menyatakan bahwa Undip itu bagus, merupakan sebuah pujian.</t>
+          <t>Tweet ini adalah pernyataan singkat dan langsung yang memberikan penilaian positif terhadap Undip.</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan keinginan kuat untuk berkuliah di Undip, bahkan rela bertukar dengan orang lain, yang mencerminkan sentimen positif.</t>
+          <t>Tweet ini mengekspresikan keinginan yang sangat kuat ('pgn bgt') untuk berkuliah di Undip, menunjukkan sentimen positif yang jelas.</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Tweet mendorong orang lain untuk bersyukur karena diterima di Undip dan menyoroti bahwa banyak orang menginginkan posisi tersebut, yang secara implisit memuji universitas.</t>
+          <t>Tweet ini memberikan pandangan positif dengan menekankan betapa banyak orang yang ingin berada di posisi mahasiswa Undip, sehingga menyarankan untuk bersyukur.</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan keinginan yang sangat besar untuk masuk Undip ("GUE PENGEN MASOOK UNDIP ASTAGAH"), menunjukkan sentimen positif yang kuat.</t>
+          <t>Tweet ini mengungkapkan keinginan yang sangat besar dan antusias ('PENGEN MASOOK UNDIP ASTAGAH') untuk bisa berkuliah di Undip.</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Tweet ini membandingkan suasana sekitar kampus Unnes dan Undip secara deskriptif tanpa memberikan penilaian baik atau buruk yang kuat terhadap Undip.</t>
+          <t>Tweet ini berisi candaan lokal mengenai hubungan antara mahasiswa Unnes dan Undip, tidak mengandung sentimen yang serius terhadap kualitas universitas.</t>
         </is>
       </c>
     </row>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan frustrasi karena lokasi Undip yang jauh, sebuah sentimen negatif terkait letak geografisnya.</t>
+          <t>Tweet ini mengungkapkan keluhan tentang lokasi Undip dengan keinginan untuk memindahkannya ke Bekasi, menunjukkan ketidakpuasan terhadap lokasinya.</t>
         </is>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Tweet ini mengungkapkan rasa syukur karena diterima di Undip (meskipun D3) dan membandingkannya dengan situasi orang lain, menunjukkan sentimen positif terhadap kesempatan tersebut.</t>
+          <t>Tweet ini mengungkapkan rasa syukur karena telah diterima di Undip, meskipun hanya di program D3, menunjukkan sentimen positif terhadap kesempatan tersebut.</t>
         </is>
       </c>
     </row>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan antusiasme dan harapan untuk lulus seleksi Undip bersama orang lain, menunjukkan sentimen positif.</t>
+          <t>Tweet ini menunjukkan antusiasme dan harapan positif untuk bisa lulus ujian masuk Undip bersama temannya.</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan ("sdih bgt") terkait twibbon Undip, menunjukkan sentimen negatif meskipun konteksnya tidak sepenuhnya jelas.</t>
+          <t>Tweet ini mengungkapkan kesedihan ('sdih bgt') saat melihat twibbon Undip, yang kemungkinan besar menandakan kegagalan atau rasa ketinggalan.</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan nostalgia dan rasa positif tentang pengalaman menjadi mahasiswa hingga alumni Undip.</t>
+          <t>Tweet ini bernada nostalgia positif, mengenang masa-masa menjadi mahasiswa baru hingga menjadi alumni Undip.</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Tweet ini menyatakan bahwa Undip adalah universitas impian ("dream university") bagi banyak orang, sebuah pujian yang jelas.</t>
+          <t>Tweet ini memberikan pujian dengan menyebut Undip sebagai 'dream university' bagi banyak orang.</t>
         </is>
       </c>
     </row>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Tweet ini adalah pertanyaan faktual mengenai jadwal pengumuman Undip, tanpa ada sentimen.</t>
+          <t>Tweet ini adalah pertanyaan faktual mengenai tanggal pengumuman dari Undip, tidak mengandung sentimen.</t>
         </is>
       </c>
     </row>
@@ -7623,7 +7623,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Tweet ini membandingkan biaya UKT di Undip dengan universitas lain secara informatif, tanpa memberikan penilaian negatif atau positif.</t>
+          <t>Tweet ini memberikan informasi objektif mengenai biaya UKT di Undip yang dianggapnya tidak mahal dan tidak murah.</t>
         </is>
       </c>
     </row>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa frustrasi atau kekecewaan ("jual mahal bgt") karena tidak berhasil masuk Undip.</t>
+          <t>Tweet ini mengungkapkan rasa frustrasi dan kekecewaan karena merasa 'ditolak' atau dipersulit oleh Undip ('jual mahal bgt').</t>
         </is>
       </c>
     </row>
@@ -7667,7 +7667,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan betapa diinginkannya Undip oleh penulis, yang rela "semi gap" untuk mendapatkannya, ini adalah bentuk apresiasi positif.</t>
+          <t>Tweet ini menunjukkan dedikasi dan keinginan kuat untuk bisa masuk Undip, bahkan rela mengambil jeda setahun (gap year).</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Tweet membela kualitas Undip, menyatakan bahwa universitas tersebut sudah sangat bagus dan tidak kalah dari UI, yang merupakan sentimen positif.</t>
+          <t>Tweet ini membela dan memuji kualitas Undip ('udh bagus bangettt'), menyatakan bahwa peringkat bukanlah satu-satunya tolak ukur.</t>
         </is>
       </c>
     </row>
@@ -7711,7 +7711,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Tweet ini menasihati seseorang untuk bersyukur bisa kuliah di Undip, menekankan bahwa banyak orang lain yang menginginkannya, yang secara implisit bernilai positif.</t>
+          <t>Tweet ini memberikan nasihat suportif untuk menghargai kesempatan berkuliah di Undip karena banyak orang lain yang menginginkannya.</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Tweet mendorong seseorang untuk bersyukur karena Undip adalah impian banyak orang, memberikan nilai positif pada universitas.</t>
+          <t>Tweet ini menekankan betapa Undip adalah impian banyak orang dan menyarankan untuk bersyukur atas kesempatan tersebut.</t>
         </is>
       </c>
     </row>
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Tweet memberikan pandangan objektif bahwa prospek kerja lulusan Undip bergantung pada individu dan usaha ekstra, bukan sentimen positif atau negatif terhadap kualitas universitas.</t>
+          <t>Tweet ini memberikan pendapat yang objektif bahwa prospek kerja lulusan Undip bergantung pada usaha individu, bukan semata-mata karena almamater.</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa Undip adalah impiannya dan cinta pertamanya, serta menyebut Undip "bagus bgt", menunjukkan sentimen positif yang sangat kuat.</t>
+          <t>Tweet ini mengungkapkan perasaan yang sangat positif dan kekaguman terhadap Undip, menyebutnya sebagai 'impianku' dan 'cinta pertamaku'.</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Tweet ini menceritakan sebuah kasus spesifik tentang biaya jalur mandiri di Undip, bersifat informatif tanpa memberikan penilaian.</t>
+          <t>Tweet ini menyajikan informasi faktual mengenai biaya jalur mandiri di Undip melalui sebuah contoh, tanpa memberikan penilaian.</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa kecewa atau penyesalan karena ditolak oleh Undip.</t>
+          <t>Tweet ini mengungkapkan kekecewaan dan rasa tidak terima karena ditolak oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Tweet ini menyatakan pilihan pribadi antara Undip dan UTM tanpa memberikan penilaian baik atau buruk terhadap keduanya.</t>
+          <t>Tweet ini hanya menyatakan sebuah pilihan atau keputusan (memilih UTM setelah diterima di Undip) tanpa menyertakan sentimen.</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Tweet ini mengungkapkan aspirasi atau harapan untuk melanjutkan studi dari S1 di Undip ke S2 di NTU, menunjukkan pandangan positif terhadap almamater S1-nya.</t>
+          <t>Tweet ini menunjukkan cita-cita atau harapan untuk bisa menempuh pendidikan S1 di Undip, menandakan pandangan positif.</t>
         </is>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman positif dan rasa syukur karena berhasil diterima di FH Undip meskipun banyak yang meragukannya.</t>
+          <t>Tweet ini menceritakan pengalaman positif dan penuh rasa syukur karena berhasil diterima di FH Undip setelah melalui keraguan dan doa.</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Tweet ini mendorong orang lain untuk bersyukur diterima di Undip karena banyak yang menginginkannya, yang secara implisit memuji universitas.</t>
+          <t>Tweet ini mengkritik orang yang tidak bersyukur diterima di Undip, sekaligus menegaskan bahwa Undip adalah universitas yang sangat diminati.</t>
         </is>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi tentang adaptasi yel-yel Undip untuk Brawijaya, bersifat informatif dan bernada humor.</t>
+          <t>Tweet ini merupakan candaan tentang penggunaan lirik lagu yang sama untuk yel-yel Undip dan Brawijaya, tidak ada sentimen terhadap universitasnya.</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>Tweet menyatakan ketidaktahuan tentang kondisi internal Undip, sehingga tidak mengandung sentimen.</t>
+          <t>Tweet ini adalah pernyataan ketidaktahuan mengenai kondisi atau 'isi' dari Undip, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7975,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi tentang jadwal pembagian sesuatu (kemungkinan almamater) di Undip, bersifat netral.</t>
+          <t>Tweet ini memberikan informasi mengenai jadwal atau waktu penerimaan sesuatu di Undip dengan nada santai.</t>
         </is>
       </c>
     </row>
@@ -7992,12 +7992,12 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Tweet ini mengutip pernyataan dari dosen bahwa lulusan Undip lebih mudah diterima kerja karena etos kerja mereka, yang merupakan informasi positif.</t>
+          <t>Tweet ini menyebarkan stereotip negatif bahwa lulusan Undip lebih mudah diterima kerja karena bersedia menerima gaji di bawah standar.</t>
         </is>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Tweet setuju dengan alasan positif memilih Undip yang disebutkan sebelumnya, yaitu kemudahan mencari kerja.</t>
+          <t>Tweet ini merupakan respons setuju terhadap sebuah alasan positif untuk memilih Undip (konteks tidak lengkap, namun responsnya positif).</t>
         </is>
       </c>
     </row>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>Tweet ini menjelaskan lebih lanjut tentang reputasi positif lulusan Undip di dunia kerja menurut dosen, yang memuji etos kerja mereka.</t>
+          <t>Tweet ini mengulang kembali stereotip negatif bahwa lulusan Undip gampang diterima kerja karena mau dibayar rendah di awal karier.</t>
         </is>
       </c>
     </row>
@@ -8063,7 +8063,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa sedih dan kegagalan karena tidak bisa masuk Undip, menunjukkan kekecewaan.</t>
+          <t>Tweet ini mengungkapkan kesedihan dan penyesalan karena tidak memiliki kesempatan untuk masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>Tweet adalah pertanyaan mengenai teknis pelaksanaan ospek di Undip, bersifat mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan informatif mengenai kegiatan orientasi mahasiswa baru (ODM) di Undip.</t>
         </is>
       </c>
     </row>
@@ -8102,12 +8102,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan konflik pribadi antara keinginan bergabung dengan tim esport Undip dan tuntutan orang tua, sentimennya lebih ke arah situasi pribadi, namun ada nuansa negatif karena keinginan terkait Undip terhalang.</t>
+          <t>Tweet ini menceritakan dilema pribadi antara mengikuti minat (esport Undip) dan permintaan orang tua, bukan sentimen terhadap universitas.</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>Tweet mendorong orang lain untuk bersyukur karena Undip adalah universitas yang sangat bagus dan menjadi impian banyak orang.</t>
+          <t>Tweet ini mendorong orang lain untuk bersyukur karena diterima di Undip, karena Undip adalah 'dream university' bagi penulis.</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan ("galaunya sampai sekarang") karena ditolak oleh Undip.</t>
+          <t>Tweet ini mengungkapkan kesedihan yang mendalam dan berkepanjangan ('galaunya sampai sekarang') karena ditolak oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -8168,12 +8168,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>Tweet mengekspresikan frustrasi terhadap seseorang yang tidak bersyukur diterima di Undip, dengan nada marah dan keinginan untuk mengambil alih posisinya.</t>
+          <t>Tweet ini menunjukkan betapa berharganya kesempatan berkuliah di Undip dengan menawarkan diri untuk menggantikan posisi orang yang tidak bersyukur.</t>
         </is>
       </c>
     </row>
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>Tweet ini adalah iklan layanan pijat yang tidak ada hubungannya dengan universitas. Hashtag #undip hanya digunakan untuk memperluas jangkauan. Catatan: TERINDIKASI BUZZER karena bersifat promosi.</t>
+          <t>Tweet ini adalah iklan layanan pijat yang hanya menggunakan kata 'undip' sebagai tagar untuk menargetkan audiens di lokasi tersebut. Catatan: TERINDIKASI BUZZER.</t>
         </is>
       </c>
     </row>
@@ -8217,7 +8217,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran positif untuk berkuliah S1 di Undip yang disebut "bagus bgttt" lalu melanjutkan S2 di UI.</t>
+          <t>Tweet ini memberikan pujian ('bagus bgttt') dan rekomendasi untuk menempuh S1 di Undip.</t>
         </is>
       </c>
     </row>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>Tweet memuji kualitas lulusan angkatannya dari universitas lain dan menyebut Undip sebagai salah satu universitas top di Jawa yang belum ditembus, menunjukkan pengakuan terhadap standar tinggi Undip.</t>
+          <t>Tweet ini menunjukkan kekaguman pada teman-teman seangkatannya yang berhasil masuk ke berbagai universitas top, dan menyebut Undip sebagai salah satu target bergengsi yang belum 'tertembus'.</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>Tweet berbagi pengalaman pribadi mendapatkan UI sementara menginginkan Undip, sebuah fakta tanpa sentimen terhadap Undip.</t>
+          <t>Tweet ini menyatakan preferensi pribadi yang lebih menginginkan Undip daripada UI, yang merupakan sebuah pujian.</t>
         </is>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>Tweet ini adalah laporan kegiatan dari kepolisian mengenai pengamanan wisuda di Undip, bersifat informatif dan objektif.</t>
+          <t>Tweet ini adalah laporan informatif dari pihak kepolisian mengenai kegiatan pengamanan wisuda di Undip.</t>
         </is>
       </c>
     </row>
@@ -8305,7 +8305,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>Tweet secara singkat menyatakan tidak pernah memimpikan Undip, yang dapat diartikan sebagai sentimen negatif atau ketidaktertarikan.</t>
+          <t>Tweet ini adalah pernyataan langsung yang menunjukkan ketidaktertarikan atau tidak adanya keinginan untuk berkuliah di Undip.</t>
         </is>
       </c>
     </row>
@@ -8327,7 +8327,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>Tweet ini berisi candaan atau fakta unik tentang "sapi" di Undip, yang bersifat humor dan netral.</t>
+          <t>Tweet ini berisi candaan internal (inside joke) mengenai hal-hal unik di kampus Undip, bersifat humor dan netral.</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>Tweet adalah laporan kegiatan dari kepolisian tentang pengamanan wisuda di Undip, bersifat informatif.</t>
+          <t>Tweet ini adalah laporan informatif dari pihak kepolisian mengenai pengamanan acara wisuda di Undip.</t>
         </is>
       </c>
     </row>
@@ -8371,7 +8371,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang informasi untuk mahasiswa baru Undip dan menyebutkan jumlah anggota grup, bersifat mencari informasi.</t>
+          <t>Tweet ini berisi pertanyaan untuk mencari informasi dan grup bagi mahasiswa baru Undip.</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan keinginan utopis untuk memindahkan Undip ke Bekasi, menyiratkan ketidakpuasan dengan lokasi saat ini.</t>
+          <t>Tweet ini adalah keluhan terhadap lokasi Undip, diungkapkan dengan nada bercanda namun tetap menunjukkan ketidakpuasan.</t>
         </is>
       </c>
     </row>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi tentang skor UTBK seseorang yang masuk ilkom Undip, bersifat faktual.</t>
+          <t>Tweet ini hanya menyampaikan data berupa skor UTBK teman yang masuk Ilmu Komunikasi Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan dan kegagalan karena tidak diterima di Undip.</t>
+          <t>Tweet ini mengungkapkan kekecewaan dan kegagalan ('malah gagal') setelah berharap bisa masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -8454,12 +8454,12 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>Tweet mengkritik seseorang yang tidak bersyukur diterima di Undip, sambil memuji Undip sebagai universitas yang keren. Sentimen dominan adalah kritik terhadap orang tersebut, namun ada sentimen positif sekunder untuk Undip. Saya akan labeli sebagai positif karena penekanannya pada nilai Undip. POSITIF - Tweet menekankan bahwa Undip adalah universitas yang keren dan banyak orang berjuang untuk masuk, sebagai dasar untuk mengkritik orang yang tidak bersyukur.</t>
+          <t>Tweet ini menekankan betapa banyak orang yang menginginkan posisi di Undip (termasuk dirinya yang ditolak) untuk membuat orang lain bersyukur.</t>
         </is>
       </c>
     </row>
@@ -8476,12 +8476,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>Tweet mengkritik seseorang karena tidak bersyukur telah diterima di Undip, menyebutnya "aneh". Meskipun memuji Undip, nada utamanya adalah kritik.</t>
+          <t>Tweet ini memuji Undip sebagai universitas yang bagus ('bgus') dan mengkritik orang yang tidak bersyukur.</t>
         </is>
       </c>
     </row>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>Tweet memberikan nasihat yang netral dan memvalidasi perasaan seseorang yang galau, menyarankan untuk menjalani dulu kuliah di Undip.</t>
+          <t>Tweet ini memberikan respons yang netral dan suportif, memvalidasi perasaan seseorang sambil menyarankan untuk mencoba menjalani perkuliahan di Undip terlebih dahulu.</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa galau dan kekecewaan yang mendalam karena gagal masuk Undip.</t>
+          <t>Tweet ini mengungkapkan kesedihan yang mendalam dan berlangsung lama ('galaunya sampe setahun') akibat ditolak oleh Undip, menunjukkan betapa berartinya universitas tersebut bagi penulis.</t>
         </is>
       </c>
     </row>
@@ -8542,12 +8542,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa kagum dan sedikit iri terhadap mereka yang diterima di Undip, sambil menyebut "kampus sebelahnya" sebagai alternatif.</t>
+          <t>Tweet ini mengungkapkan kekecewaan dan kesedihan karena ditolak oleh Undip, menyebut diri sebagai 'pejuang undip yg tertolak'.</t>
         </is>
       </c>
     </row>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Tweet menasihati seseorang untuk bersyukur karena menjadi mahasiswa Undip adalah keinginan banyak orang.</t>
+          <t>Tweet ini kembali mengingatkan seseorang untuk bersyukur karena banyak orang lain yang ingin masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Tweet mengkritik seseorang yang tidak bersyukur diterima di Undip demi gengsi, sambil secara implisit menyatakan bahwa Undip adalah rezeki bagi orang lain.</t>
+          <t>Tweet ini menekankan bahwa menjadi mahasiswa Undip adalah sebuah anugerah yang diinginkan banyak orang, sebagai respons terhadap keluhan seseorang.</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kekecewaan karena ditolak oleh beberapa universitas termasuk Undip, sebelum akhirnya diterima di UNAND.</t>
+          <t>Tweet ini bernada sarkastik, mengucapkan 'terimakasih' kepada Undip (dan universitas lain) karena telah menolaknya. Sentimen utamanya adalah kekecewaan.</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang pembagian almamater di Undip, sebuah pertanyaan faktual.</t>
+          <t>Tweet ini adalah keluhan ringan atau pertanyaan yang menyatakan fakta bahwa Undip belum membagikan jaket almamater.</t>
         </is>
       </c>
     </row>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan mahalnya biaya kos untuk mahasiswa FK Undip, menunjukkan sentimen negatif terhadap biaya hidup di sekitar kampus.</t>
+          <t>Tweet ini mengeluhkan mahalnya biaya kos di sekitar Fakultas Kedokteran Undip.</t>
         </is>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi tentang perpindahan lokasi sebuah program studi di Undip.</t>
+          <t>Tweet ini memberikan informasi yang kemungkinan besar bersifat fiktif atau kontekstual dalam sebuah permainan, tidak mencerminkan kondisi nyata.</t>
         </is>
       </c>
     </row>
@@ -8701,7 +8701,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Tweet hanya me-mention sebuah akun tanpa konteks yang jelas terkait sentimen terhadap universitas.</t>
+          <t>Tweet ini hanya me-mention seorang pengguna terkait Undip tanpa memberikan konteks atau sentimen yang bisa dinilai.</t>
         </is>
       </c>
     </row>
@@ -8723,7 +8723,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan usaha kerasnya untuk bisa masuk Undip, yang mencerminkan betapa berharganya Undip di mata penulis.</t>
+          <t>Tweet ini menunjukkan usaha keras untuk bisa masuk Undip, yang secara implisit menunjukkan bahwa universitas tersebut sangat berharga dan diinginkan.</t>
         </is>
       </c>
     </row>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa frustrasi karena orang yang diterima di Undip tidak bersyukur, sementara penulis sendiri gagal masuk.</t>
+          <t>Tweet ini mengungkapkan frustrasi karena gagal masuk Undip sementara melihat orang lain yang berhasil justru tidak bersyukur.</t>
         </is>
       </c>
     </row>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Tweet membenarkan informasi bahwa banyak lulusan Undip bekerja di pemerintahan, yang merupakan testimoni positif.</t>
+          <t>Tweet ini berisi pengamatan positif tentang banyaknya lulusan Undip yang bekerja di pemerintahan, menunjukkan prospek karier yang baik.</t>
         </is>
       </c>
     </row>
@@ -8784,12 +8784,12 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan antusiasme untuk mengunjungi Undip demi melihat sesuatu yang unik (sapi), menunjukkan minat positif.</t>
+          <t>Tweet ini mengungkapkan rencana pribadi untuk mengunjungi Undip karena alasan spesifik (inside joke), bukan karena sentimen terhadap universitas.</t>
         </is>
       </c>
     </row>
@@ -8806,12 +8806,12 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Tweet ini adalah postingan penawaran kamar kost di dekat Undip, bersifat informatif komersial.</t>
+          <t>Tweet ini adalah iklan penawaran kamar kos di dekat Undip. Catatan: TERINDIKASI BUZZER.</t>
         </is>
       </c>
     </row>
@@ -8828,12 +8828,12 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan nama fakultas di Undip sebagai jawaban atas sebuah pertanyaan, bersifat informatif.</t>
+          <t>Tweet ini hanya menyebutkan nama fakultas di Undip tanpa konteks apa pun.</t>
         </is>
       </c>
     </row>
@@ -8850,12 +8850,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Tweet berisi observasi tentang sapi di Undip yang dibiarkan, tanpa sentimen positif atau negatif yang kuat.</t>
+          <t>Tweet ini mengkritik Undip karena dianggap membiarkan suatu masalah terjadi (konteks tidak jelas, namun nadanya negatif).</t>
         </is>
       </c>
     </row>
@@ -8872,12 +8872,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>TIDAK RELEVAN</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Tweet hanya menyebutkan lokasi patung sapi di Undip sebagai jawaban, tidak ada sentimen tentang universitas.</t>
+          <t>Tweet ini hanya mengidentifikasi sebuah patung di salah satu fakultas Undip.</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Tweet memberikan semangat kepada seseorang dan menyatakan bahwa Undip juga merupakan pilihan yang bagus.</t>
+          <t>Tweet ini memberikan semangat dan afirmasi positif bahwa Undip adalah universitas yang bagus.</t>
         </is>
       </c>
     </row>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Tweet memberikan ucapan selamat kepada seseorang yang diterima di Undip.</t>
+          <t>Tweet yang memberitakan kabar baik bahwa seseorang diterima di Undip.</t>
         </is>
       </c>
     </row>
@@ -8938,12 +8938,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa plot twist yang positif karena diterima di IPB setelah menargetkan UGM dan Undip.</t>
+          <t>Tweet ini menceritakan pengalaman pribadi yang mengejutkan terkait pilihan universitas, di mana Undip adalah salah satu pilihan awal.</t>
         </is>
       </c>
     </row>
@@ -8965,7 +8965,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Tweet menyatakan fakta bahwa ia mendapatkan tiket acara di Undip, tidak ada sentimen.</t>
+          <t>Tweet ini adalah pernyataan pribadi mengenai mendapatkan tiket untuk sebuah acara yang berlokasi di Undip.</t>
         </is>
       </c>
     </row>
@@ -8987,7 +8987,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Tweet bertanya kapan Undip akan merilis twibbon, sebuah pertanyaan netral.</t>
+          <t>Tweet ini berisi pertanyaan yang menunjukkan ketidaksabaran agar Undip segera merilis twibbon, bersifat permintaan informasi.</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Tweet menyatakan harapan atau doa untuk diterima di jurusan Administrasi Publik Undip.</t>
+          <t>Tweet ini merupakan doa dan harapan untuk dapat diterima di jurusan Administrasi Publik Undip.</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Tweet berupa pertanyaan tentang warna almamater Undip, bersifat mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan detail mengenai warna jaket almamater Undip, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -9048,12 +9048,12 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Tweet menceritakan dilema antara menunggu pengumuman Undip dan sudah diterima di UB, sebuah kondisi netral.</t>
+          <t>Tweet ini menunjukkan preferensi yang kuat untuk Undip, di mana penulis rela menunggu kepastian dari Undip meskipun sudah diterima di universitas lain (UB).</t>
         </is>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa kesal atau sedih karena timeline-nya dipenuhi oleh konten terkait Undip, yang membuatnya sulit move on setelah ditolak.</t>
+          <t>Tweet ini mengungkapkan perasaan tidak nyaman dan takut gagal move on ('gamon') karena ditolak oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Tweet menyatakan diri sebagai orang yang "disingkirkan" oleh Undip, menunjukkan rasa kecewa karena ditolak.</t>
+          <t>Tweet ini menggunakan humor untuk mengekspresikan kesedihan karena 'disingkirkan' atau ditolak oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang rute transportasi umum dari Undip ke Kota Lama, bersifat mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan praktis mengenai rute transportasi umum dari Undip.</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan perasaan belum bisa move on ("gamon") dari Undip setelah tidak diterima.</t>
+          <t>Tweet ini secara eksplisit menyatakan 'gagal move on' dari Undip, menunjukkan kesedihan atau penyesalan yang mendalam.</t>
         </is>
       </c>
     </row>
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Tweet memberikan klarifikasi mengenai suatu isu terkait pemalsuan data penerimaan di Undip, bersifat informatif.</t>
+          <t>Tweet ini menjelaskan sebuah kasus penipuan di mana seseorang memalsukan data penerimaan di Undip. Informasi ini netral terhadap institusi.</t>
         </is>
       </c>
     </row>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran positif kepada seseorang untuk melanjutkan kuliah di Undip karena universitas tersebut "bagus".</t>
+          <t>Tweet ini memberikan dorongan semangat kepada orang lain dengan menyatakan bahwa Undip adalah universitas yang bagus.</t>
         </is>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Tweet berbagi pengalaman pribadi berada di Undip, sebuah fakta netral.</t>
+          <t>Tweet ini menyatakan kesamaan nasib dengan orang lain dan menyebutkan bahwa ia sekarang berkuliah di Undip, tanpa sentimen tambahan.</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Tweet membandingkan rusunawa Undip dengan tempat lain secara negatif.</t>
+          <t>Tweet ini membuat perbandingan langsung yang menyiratkan bahwa asrama (rusunawa) Undip lebih buruk daripada sesuatu yang lain.</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Tweet memberikan ucapan selamat dan semangat kepada delegasi mahasiswa yang aktif di organisasi tingkat fakultas dan universitas (BEM dan Senat Undip).</t>
+          <t>Tweet ini adalah pengumuman resmi dari sebuah BEM yang memberikan selamat dan semangat kepada delegasi mahasiswa, mencerminkan kegiatan positif di Undip.</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan karena ditolak oleh beberapa PTN top termasuk Undip.</t>
+          <t>Tweet ini mengungkapkan kesedihan karena ditolak oleh beberapa universitas ternama, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Tweet ini bertanya tentang universitas tujuan seseorang, dengan menyebutkan Undip sebagai salah satu pilihan.</t>
+          <t>Tweet ini mencantumkan Undip sebagai salah satu pilihan dalam sebuah pertanyaan tentang PTN.</t>
         </is>
       </c>
     </row>
@@ -9312,12 +9312,12 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa belum bisa move on ("gamon") dari jurusan hukum di Undip.</t>
+          <t>Tweet ini menunjukkan keinginan yang kuat ('gamon banget') terhadap jurusan hukum di Undip, mengindikasikan reputasi positif dari fakultas tersebut.</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Tweet memberikan saran positif bahwa Undip sebaiknya memanfaatkan ekosistem Microsoft yang sudah dilanggan, ini adalah kritik membangun yang bertujuan positif.</t>
+          <t>Tweet ini memberikan pujian kepada Undip karena menyediakan langganan ekosistem Microsoft untuk mahasiswanya.</t>
         </is>
       </c>
     </row>
@@ -9361,7 +9361,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Tweet berupa permintaan informasi mengenai skor UTBK untuk lolos di beberapa universitas, termasuk Undip.</t>
+          <t>Tweet ini adalah permintaan informasi mengenai skor UTBK untuk bisa masuk ke beberapa universitas, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Tweet berisi candaan yang merespons isu tenggelam, tidak mengandung sentimen serius terhadap Undip.</t>
+          <t>Tweet ini adalah candaan hiperbolis tentang lokasi geografis Undip, tidak mengandung sentimen terhadap kualitas universitas.</t>
         </is>
       </c>
     </row>
@@ -9400,12 +9400,12 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Tweet ini membandingkan biaya kos di sekitar Undip dengan lokasi lain secara rinci dan informatif.</t>
+          <t>Tweet ini membuat perbandingan biaya hidup yang menguntungkan Undip, menyatakan bahwa di Undip 'tetep lebih murah'.</t>
         </is>
       </c>
     </row>
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Tweet ini adalah permintaan informasi untuk mencari kost di sekitar Undip dengan kriteria tertentu.</t>
+          <t>Tweet ini adalah permintaan informasi untuk mencari tempat kos di sekitar Undip.</t>
         </is>
       </c>
     </row>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Tweet memberikan data jumlah peminat FK Undip, bersifat informatif.</t>
+          <t>Tweet ini menyajikan data atau fakta mengenai jumlah peminat Fakultas Kedokteran Undip.</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesedihan karena tertolak tiga kali dari jurusan impian di Undip.</t>
+          <t>Tweet ini mengungkapkan kesedihan yang mendalam ('plg sad') karena telah ditolak Undip sebanyak tiga kali.</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan kesulitan mencari kost di dekat Undip, sebuah sentimen negatif terkait fasilitas pendukung.</t>
+          <t>Tweet ini mengeluhkan sulitnya mencari kamar kos yang kosong di dekat Undip.</t>
         </is>
       </c>
     </row>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Tweet bertanya mengenai aturan berpakaian untuk mahasiswa FK Undip, bersifat mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan informatif mengenai aturan berpakaian untuk mahasiswa FK Undip.</t>
         </is>
       </c>
     </row>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Tweet berbagi informasi mengenai biaya kuliah di Undip pada tahun 2000, bersifat informatif historis.</t>
+          <t>Tweet ini berbagi informasi historis mengenai biaya kuliah di Undip pada tahun 2000.</t>
         </is>
       </c>
     </row>
@@ -9559,7 +9559,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi rinci tentang fasilitas dan harga kost di dekat Undip.</t>
+          <t>Tweet ini memberikan deskripsi dan informasi mengenai sebuah tempat kos yang berlokasi dekat Undip.</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi tentang pilihan prodi saintek di UI dan menyatakan ketidaktahuan tentang Undip.</t>
+          <t>Tweet ini menyatakan ketidaktahuan tentang program studi di Undip, bersifat informatif dan netral.</t>
         </is>
       </c>
     </row>
@@ -9598,12 +9598,12 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Tweet menyatakan pilihan jurusan yang tidak lolos (Ilmu Sejarah Undip) dan kebingungan tentang prospek kerjanya, lebih bersifat refleksi pribadi daripada sentimen ke Undip.</t>
+          <t>Tweet ini mengungkapkan keraguan dan pandangan negatif terhadap prospek kerja lulusan Ilmu Sejarah Undip.</t>
         </is>
       </c>
     </row>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Tweet menceritakan perjalanan pilihan jurusannya, menyebutkan ilkom Undip sebagai impian yang tidak tercapai.</t>
+          <t>Tweet ini mengungkapkan kekecewaan karena impiannya untuk masuk Ilkom Undip tidak terwujud.</t>
         </is>
       </c>
     </row>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kekaguman dan harapan untuk bisa lulus dari Undip dan bertemu dengan seseorang yang dikagumi.</t>
+          <t>Tweet ini berisi pujian kepada seseorang dan harapan untuk bisa lulus dari Undip, menunjukkan pandangan positif terhadap universitas sebagai tujuan masa depan.</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Tweet berisi informasi unik dan bernada humor tentang dua jenis sapi di Undip.</t>
+          <t>Tweet ini berisi candaan internal (inside joke) tentang sapi di kampus Undip.</t>
         </is>
       </c>
     </row>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Tweet memuji gedung-gedung di Undip yang disebut "bagus kayak istana megah".</t>
+          <t>Tweet ini memuji arsitektur gedung-gedung di Undip yang dianggap megah seperti istana.</t>
         </is>
       </c>
     </row>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Tweet ini bernada sarkasme atau kritik terhadap mahasiswa (lulusan) Undip yang diibaratkan "buaya", sebuah sentimen negatif.</t>
+          <t>Tweet ini berisi stereotip negatif dan hinaan yang ditujukan kepada mahasiswa Peternakan Undip, menyebut mereka 'buaya' (playboy).</t>
         </is>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Tweet ini mengajak seseorang ke Undip untuk melihat sesuatu yang lucu, menunjukkan asosiasi positif dan menyenangkan.</t>
+          <t>Tweet ini memberikan rekomendasi untuk mengunjungi Undip karena dianggap akan memberikan pengalaman yang sangat lucu atau menyenangkan ('ngakak brutal').</t>
         </is>
       </c>
     </row>
@@ -9752,12 +9752,12 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Tweet ini adalah iklan penjualan tiket acara "Manoover Undip", bersifat komersial.</t>
+          <t>Tweet ini adalah iklan penjualan tiket untuk sebuah acara yang diadakan di Undip, bukan tentang universitas itu sendiri.</t>
         </is>
       </c>
     </row>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi geografis tentang pembagian wilayah Semarang atas dan bawah dengan Undip sebagai patokan.</t>
+          <t>Tweet ini memberikan informasi geografis untuk mengklarifikasi lokasi kampus Undip Tembalang.</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Tweet berisi observasi pribadi tentang banyaknya mahasiswa baru FH Undip di timeline media sosialnya.</t>
+          <t>Tweet ini adalah sebuah observasi atau pertanyaan mengenai banyaknya mahasiswa baru FH Undip di linimasanya.</t>
         </is>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Tweet menceritakan kisah sukses tentang kerja sama suami-istri dalam menempuh pendidikan S3 di Undip dan mengurus keluarga, memberikan citra positif.</t>
+          <t>Tweet ini menceritakan kisah sukses seorang lulusan S3 Hukum Undip, memberikan citra positif bagi almamater.</t>
         </is>
       </c>
     </row>
@@ -9840,12 +9840,12 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Tweet ini mengucapkan salam perpisahan dan doa baik untuk teman-teman di Undip, menunjukkan hubungan sosial yang positif.</t>
+          <t>Tweet ini adalah pesan perpisahan pribadi kepada teman-teman dari Undip, sentimennya bersifat personal.</t>
         </is>
       </c>
     </row>
@@ -9862,12 +9862,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan acara yang akan diselenggarakan oleh BAK FEB UNDIP. Catatan: TERINDIKASI BUZZER karena bersifat promosi dari akun organisasi.</t>
+          <t>Tweet ini adalah pengumuman dari organisasi mahasiswa (BAK FEB UNDIP) mengenai acara yang akan datang. Bersifat informatif dan promosi internal. Catatan: TERINDIKASI BUZZER dari akun organisasi.</t>
         </is>
       </c>
     </row>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Tweet memuji bangunan di Undip yang disebut "kayak istana".</t>
+          <t>Tweet ini kembali memuji gedung di Undip yang seperti istana.</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Tweet memberikan doa dan harapan agar seseorang lulus seleksi masuk Undip.</t>
+          <t>Tweet ini berisi doa dan harapan baik agar seseorang lulus seleksi masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan peringkat mahasiswa di Undip dan beberapa universitas lain, bersifat informatif.</t>
+          <t>Tweet ini menyajikan informasi tentang peringkat siswa di sekolahnya yang diterima di Undip dan universitas lain.</t>
         </is>
       </c>
     </row>
@@ -9955,7 +9955,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Tweet ini merekomendasikan Undip sebagai pilihan.</t>
+          <t>Tweet ini merupakan rekomendasi singkat dan tegas untuk memilih Undip.</t>
         </is>
       </c>
     </row>
@@ -9977,7 +9977,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Tweet memuji bangunan Fakultas Hukum Undip yang disebut "bagus parah".</t>
+          <t>Tweet ini memberikan pujian yang sangat antusias terhadap gedung Fakultas Hukum Undip.</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Tweet memuji bangunan di Undip yang disebut "kaya istana".</t>
+          <t>Tweet ini adalah pujian lain yang menyamakan bangunan di Undip dengan istana.</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Tweet mengajukan pertanyaan perbandingan antara dua program studi di Undip dan UB, bersifat mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan yang meminta perbandingan antara fakultas hukum di Undip dan UB.</t>
         </is>
       </c>
     </row>
@@ -10038,12 +10038,12 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi tentang fasilitas di rusunawa Undip, bersifat deskriptif.</t>
+          <t>Tweet ini menyoroti kekurangan ('minusnya') dari asrama (rusunawa) Undip, yaitu lokasi yang di pojok dan tidak adanya lift.</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Tweet menyatakan penantian pengumuman Undip, sebuah fakta tanpa sentimen.</t>
+          <t>Tweet ini menyatakan informasi faktual tentang waktu pengumuman Undip yang tinggal dua hari.</t>
         </is>
       </c>
     </row>
@@ -10087,7 +10087,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Tweet menyoroti biaya SPI dan UKT yang sangat tinggi di FK Undip, yang dapat dianggap sebagai keluhan atau sentimen negatif terhadap mahalnya biaya.</t>
+          <t>Tweet ini menyoroti biaya kuliah (SPI dan UKT) di FK Undip yang sangat mahal, dengan nada mengeluh.</t>
         </is>
       </c>
     </row>
@@ -10104,12 +10104,12 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Tweet menceritakan perjalanan seleksi masuk universitas, menyebutkan beberapa jurusan di Undip sebagai impian yang tidak tercapai.</t>
+          <t>Tweet ini mengungkapkan kekecewaan karena jurusan impiannya di Undip tidak tercapai.</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Tweet berbagi informasi bahwa anaknya sudah berkuliah di Undip, sebuah fakta keluarga.</t>
+          <t>Tweet ini berbagi informasi keluarga, di mana salah satu anaknya sedang berkuliah di Fakultas Pertanian Undip.</t>
         </is>
       </c>
     </row>
@@ -10153,7 +10153,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Tweet bertanya apakah sebuah akun (kemungkinan terkait acara) juga mencakup FEB Undip, pertanyaan netral.</t>
+          <t>Tweet ini adalah pertanyaan singkat untuk klarifikasi, menanyakan apakah FEB Undip juga terdampak sesuatu.</t>
         </is>
       </c>
     </row>
@@ -10170,12 +10170,12 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan kegiatan Senat Mahasiswa FISIP Undip. Catatan: TERINDIKASI BUZZER karena merupakan pengumuman resmi dari akun organisasi.</t>
+          <t>Tweet ini adalah pengumuman resmi dari Senat Mahasiswa FISIP Undip mengenai bidang kerja komisi. Bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -10192,12 +10192,12 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>TIDAK RELEVAN</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Tweet ini adalah bagian dari utas (thread) promosi acara dan tidak bisa berdiri sendiri sebagai tweet ber-sentimen tentang Undip.</t>
+          <t>Tweet ini adalah ajakan dari sebuah organisasi mahasiswa untuk mengisi kuesioner evaluasi. Bersifat internal dan informatif.</t>
         </is>
       </c>
     </row>
@@ -10219,7 +10219,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan pengisian evaluasi IRS untuk mahasiswa FISIP Undip, bersifat pengumuman. Catatan: TERINDIKASI BUZZER karena merupakan pengumuman resmi dari akun organisasi.</t>
+          <t>Tweet ini adalah pengumuman mengenai Evaluasi Pengisian IRS (semacam KRS) yang ditujukan untuk mahasiswa FISIP Undip.</t>
         </is>
       </c>
     </row>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Tweet membandingkan pilihan jurusan antara Undip dan Udinus, menceritakan pilihan pribadi.</t>
+          <t>Tweet ini membandingkan dua pilihan jurusan di dua universitas berbeda (Undip dan Udinus) dengan nada humor.</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Tweet memberikan doa dan harapan agar seseorang diterima di Undip.</t>
+          <t>Tweet ini berisi doa dan harapan agar seseorang diterima di Undip.</t>
         </is>
       </c>
     </row>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Tweet membagikan informasi positif bahwa Undip bekerja sama dengan perusahaan multinasional sehingga lulusannya cepat dapat kerja.</t>
+          <t>Tweet ini menyebarkan informasi positif bahwa Undip memiliki kerja sama dengan perusahaan multinasional yang memudahkan lulusannya mendapat pekerjaan.</t>
         </is>
       </c>
     </row>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Tweet berbagi pengalaman positif setelah magang dan menemukan banyak alumni Undip di dunia kerja, menunjukkan jaringan alumni yang kuat.</t>
+          <t>Tweet ini mengungkapkan kekaguman atas jaringan alumni Undip yang tersebar luas dan sukses ('alumni undip dimana mana').</t>
         </is>
       </c>
     </row>
@@ -10324,12 +10324,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Tweet ini merupakan refleksi pribadi penulis tentang pilihan-pilihan jurusan di berbagai universitas, termasuk PWK Undip sebagai salah satu keinginan.</t>
+          <t>Tweet ini menunjukkan keinginan yang sangat kuat ('pengen bgt') untuk masuk jurusan PWK di Undip.</t>
         </is>
       </c>
     </row>
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Tweet memuji gedung FH Undip, meskipun juga memuji lingkungan FH UNS. Sentimen terhadap Undip jelas positif.</t>
+          <t>Tweet ini memberikan pujian yang sangat tinggi ('gaada obat') untuk gedung Fakultas Hukum Undip.</t>
         </is>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Tweet membandingkan biaya hidup (kos) di sekitar Undip yang disebut "mahal-mahal" dengan Unnes.</t>
+          <t>Tweet ini membandingkan Undip dengan UNNES, dan mengeluhkan bahwa biaya di Undip 'mahal-mahal'.</t>
         </is>
       </c>
     </row>
@@ -10395,7 +10395,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi bahwa penulis sudah pindah dari Undip.</t>
+          <t>Tweet ini sekadar menyatakan fakta bahwa penulisnya telah pindah (kuliah) ke Undip.</t>
         </is>
       </c>
     </row>
@@ -10412,12 +10412,12 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Tweet ini adalah iklan penawaran kos putri di dekat Undip, bersifat komersial.</t>
+          <t>Tweet ini adalah iklan kamar kos yang berlokasi di dekat Undip.</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Tweet adalah permintaan informasi tentang kost pria di dekat Undip.</t>
+          <t>Tweet ini adalah permintaan informasi mengenai kos pria di dekat Undip.</t>
         </is>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Tweet memberikan testimoni bahwa lulusan salah satu jurusan D3 di Undip banyak yang berhasil tembus kerja.</t>
+          <t>Tweet ini berbagi informasi positif tentang tingginya tingkat penyerapan kerja di salah satu jurusan D3 Undip.</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Tweet menjawab pertanyaan tentang lokasi dengan mengacu pada jalan menuju Undip, bersifat informatif.</t>
+          <t>Tweet ini memberikan informasi lokasi yang merujuk pada 'jalan ke undip'.</t>
         </is>
       </c>
     </row>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Tweet ini mengandung sentimen negatif yang kuat, menyarankan agar "anak hukum Undip digoreng" dan menyebut hukumnya "ga jelas".</t>
+          <t>Tweet ini berisi kritik pedas dan humor gelap yang ditujukan kepada mahasiswa hukum secara umum, dengan menyebut secara spesifik 'hukum undip'.</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Tweet mengoreksi informasi lokasi, menyatakan Undip ada di Semarang, bukan di sebelah ITB.</t>
+          <t>Tweet ini mengoreksi informasi yang salah mengenai lokasi Undip.</t>
         </is>
       </c>
     </row>
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Tweet ini adalah pertanyaan tentang biaya hidup di sekitar Undip, bersifat mencari informasi.</t>
+          <t>Tweet ini adalah pertanyaan mengenai biaya hidup (kos dan makanan) saat berkuliah di Undip.</t>
         </is>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Tweet ini menyebutkan asrama Undip sebagai jawaban dengan nada candaan.</t>
+          <t>Tweet ini hanya mention 'asrama undip' dengan nada bercanda, tanpa konteks yang bisa dinilai sentimennya.</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa iri dan membandingkan asrama Undip ("horor adanya") secara negatif dengan asrama lain.</t>
+          <t>Tweet ini mengungkapkan rasa iri dan mengkritik asrama pria di Undip yang disebutnya 'horor'.</t>
         </is>
       </c>
     </row>
@@ -10615,7 +10615,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Tweet membuat perbandingan langsung yang menyatakan Asrama Unnes lebih baik daripada Rusunawa Undip.</t>
+          <t>Tweet ini secara langsung menyatakan bahwa Asrama Unnes lebih baik daripada Rusunawa Undip.</t>
         </is>
       </c>
     </row>
@@ -10637,7 +10637,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang rata-rata nilai untuk lolos di psikologi Undip, sebuah permintaan informasi.</t>
+          <t>Tweet ini adalah pertanyaan untuk mencari tahu rata-rata nilai agar bisa lolos di jurusan psikologi Undip dan UB.</t>
         </is>
       </c>
     </row>
@@ -10654,12 +10654,12 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Tweet menyatakan kesiapan ("siap jadi gembel undip"), sebuah ekspresi pasrah dengan nada humor yang tidak dapat diklasifikasikan sebagai positif atau negatif secara jelas.</t>
+          <t>Tweet ini menggunakan humor sarkastik dengan menyebut 'siap jadi gembel undip', yang menyiratkan adanya kesulitan finansial atau biaya hidup yang tinggi.</t>
         </is>
       </c>
     </row>
@@ -10676,12 +10676,12 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa terima kasih kepada teman yang telah menemaninya berjuang (meski tidak jadi di Undip), menunjukkan sentimen pertemanan yang positif dalam konteks perjuangan masuk Undip.</t>
+          <t>Tweet ini mengungkapkan kesedihan ('huhuu') karena tidak berhasil masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Tweet meminta doa agar lulus jalur terakhir masuk Undip, menunjukkan keinginan besar dan harapan positif.</t>
+          <t>Tweet ini berisi permohonan doa untuk bisa lulus di Undip yang disebut sebagai 'kampus impian'.</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Tweet membandingkan harga asrama di Unnes dengan di Tembalang (area Undip), menyiratkan bahwa dengan harga yang sama di Undip akan mendapatkan kondisi yang jauh lebih buruk.</t>
+          <t>Tweet ini menggunakan hiperbola untuk mengkritik mahalnya biaya hidup di area Tembalang (Undip), seolah-olah harus 'tidur di luar'.</t>
         </is>
       </c>
     </row>
@@ -10747,7 +10747,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Tweet menyapa seseorang dan mengungkapkan harapan untuk bertemu di Undip, menunjukkan sentimen positif.</t>
+          <t>Tweet ini berisi sapaan hangat dan positif kepada teman yang akan bertemu di Undip.</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Tweet bertanya apakah ada yang mengikuti jalur mandiri Undip untuk jurusan tertentu.</t>
+          <t>Tweet ini adalah pertanyaan untuk mencari orang lain yang mengikuti jalur mandiri Undip untuk jurusan tertentu.</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Tweet memvalidasi informasi positif bahwa lulusan Undip mudah diterima kerja, bahkan atasan di kementerian pun lulusan Undip.</t>
+          <t>Tweet ini menguatkan sebuah informasi positif tentang kesuksesan alumni Undip di dunia kerja, bahkan sampai menjadi atasan di kementerian.</t>
         </is>
       </c>
     </row>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan keberadaan rusunawa di Undip, sebuah informasi faktual.</t>
+          <t>Tweet ini menyampaikan sebuah informasi yang belum terverifikasi ('katanya') tentang adanya rusunawa di Undip.</t>
         </is>
       </c>
     </row>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Tweet menyatakan lokasi yang dekat dengan Undip, sebuah informasi geografis.</t>
+          <t>Tweet ini memberikan informasi jarak/lokasi relatif terhadap Undip ('DEKET KALO DARI UNDIP').</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan penyesalan atau permintaan maaf karena sering mengatai Undip, yang menyiratkan adanya sentimen negatif sebelumnya.</t>
+          <t>Tweet ini adalah sebuah 'pengakuan' bahwa penulis sering menjelek-jelekkan ('ngatain') Undip, yang menandakan adanya sentimen negatif yang pernah atau masih ada.</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Tweet membandingkan asrama Undip secara negatif dengan asrama lain yang lebih murah dan lebih bagus.</t>
+          <t>Tweet ini mengeluhkan asrama Undip yang dianggap mahal dan kualitasnya tidak sepadan ('ga sebagus ini').</t>
         </is>
       </c>
     </row>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan sistem peringatan banjir yang dikembangkan/terkait dengan Undip, bersifat informatif.</t>
+          <t>Tweet ini merupakan pengumuman layanan publik tentang peringatan banjir dari sebuah sistem, yang me-mention Undip kemungkinan karena relevansi lokasi.</t>
         </is>
       </c>
     </row>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Tweet meminta doa agar diterima di Undip, menunjukkan harapan yang positif.</t>
+          <t>Tweet ini berisi permohonan doa agar diterima di Undip, menunjukkan keinginan yang positif.</t>
         </is>
       </c>
     </row>
@@ -10940,12 +10940,12 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan keinginan agar ospek Undip menyediakan makanan, sebuah harapan bernada santai.</t>
+          <t>Tweet ini berisi harapan yang disampaikan dengan humor agar ospek di Undip menyenangkan (menyediakan makanan enak).</t>
         </is>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Tweet menceritakan latar belakang keluarga yang lulusan UNS dan Undip, sebuah fakta keluarga.</t>
+          <t>Tweet ini menceritakan keuntungan pribadi memiliki saudara yang berkuliah di Undip, sentimennya netral terhadap universitas.</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Tweet mempertanyakan kondisi asrama Undip dengan nada cemas atau negatif.</t>
+          <t>Tweet ini adalah reaksi kaget yang menyiratkan kondisi 'dorm undip' itu buruk.</t>
         </is>
       </c>
     </row>
@@ -11006,12 +11006,12 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Tweet adalah refleksi pribadi tentang keputusan tidak mengambil Undip di masa lalu, bersifat introspektif.</t>
+          <t>Tweet ini menunjukkan penyesalan karena tidak mengambil kesempatan untuk kuliah di Undip pada masa lalu.</t>
         </is>
       </c>
     </row>
@@ -11028,12 +11028,12 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>NEGATIF</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Tweet menceritakan pengalaman menjadi satu-satunya orang dari sekolahnya di Undip, sebuah fakta pribadi.</t>
+          <t>Tweet ini mendeskripsikan perasaan terisolasi ('terdampar sendirian') saat awal kuliah di Undip.</t>
         </is>
       </c>
     </row>
@@ -11055,7 +11055,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Tweet mengajukan pertanyaan kepada akademisi Undip untuk melakukan riset terkait isu sosial, yang merupakan permintaan netral.</t>
+          <t>Tweet ini adalah sebuah saran agar akademisi dari Undip melakukan riset terkait isu sosial, bersifat netral.</t>
         </is>
       </c>
     </row>
@@ -11072,12 +11072,12 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Tweet mencari teman sesama penggemar Taylor Swift di kalangan mahasiswa Undip untuk suatu acara.</t>
+          <t>Tweet ini mencari teman untuk kegiatan non-akademik di sebuah platform menfess Undip, topiknya bukan tentang universitas.</t>
         </is>
       </c>
     </row>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Tweet membandingkan biaya dorm Undip yang "mahal" dengan dorm di sebelahnya (Unnes) yang lebih terjangkau, sebuah keluhan.</t>
+          <t>Tweet ini membuat perbandingan yang merugikan Undip, menyiratkan bahwa fasilitas di Undip tidak sebanding dengan harganya ('berbanding terbalik').</t>
         </is>
       </c>
     </row>
@@ -11121,7 +11121,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Tweet secara eksplisit menyebut dorm Undip "mahal bgt mana jelek kek penjara", sebuah kritik yang sangat negatif.</t>
+          <t>Tweet ini berisi keluhan yang sangat keras terhadap asrama Undip, menyebutnya 'mahal', 'jelek kek penjara', dan menyatakan iri pada Unnes.</t>
         </is>
       </c>
     </row>
@@ -11138,12 +11138,12 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan layanan pengaduan dari BEM FH Undip. Catatan: TERINDIKASI BUZZER karena merupakan pengumuman dari akun organisasi.</t>
+          <t>Tweet ini adalah pengumuman informatif dari BEM FH Undip mengenai layanan pengaduan.</t>
         </is>
       </c>
     </row>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Tweet bertanya apakah ada anak Undip di platform tersebut.</t>
+          <t>Tweet ini adalah pertanyaan sederhana untuk menanyakan apakah ada mahasiswa Undip di suatu tempat/forum.</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Tweet memberikan komentar singkat bahwa Undip itu "seru".</t>
+          <t>Tweet ini adalah pernyataan singkat dan langsung bahwa Undip itu 'seru'.</t>
         </is>
       </c>
     </row>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa menonton laporan wisuda Undip di Twitter lebih seru daripada di YouTube, sebuah apresiasi positif.</t>
+          <t>Tweet ini menyatakan preferensi bahwa menonton laporan wisuda Undip di Twitter lebih seru, memberikan penilaian positif pada acara tersebut.</t>
         </is>
       </c>
     </row>
@@ -11226,12 +11226,12 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Tweet ini adalah iklan penawaran kos putri di dekat Undip, bersifat komersial.</t>
+          <t>Tweet ini adalah iklan kamar kos di dekat Undip.</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang besaran SPI untuk jalur kemitraan FKG Undip, sebuah permintaan informasi.</t>
+          <t>Tweet ini adalah pertanyaan spesifik mengenai biaya SPI untuk jalur kemitraan FKG Undip.</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Tweet memberikan doa dan dukungan agar seseorang lolos mandiri Undip.</t>
+          <t>Tweet ini berisi doa dan dukungan agar seseorang lolos ujian mandiri Undip.</t>
         </is>
       </c>
     </row>
@@ -11292,12 +11292,12 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa bosan atau kesepian karena harus pergi ke bukit Undip sendirian.</t>
+          <t>Tweet ini mengungkapkan keinginan pribadi untuk pergi ke suatu tempat di Undip, namun mengeluh karena sendirian. Sentimennya personal, bukan tentang tempatnya.</t>
         </is>
       </c>
     </row>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi detail tentang harga dan fasilitas kost di dekat Undip sebagai perbandingan.</t>
+          <t>Tweet ini memberikan deskripsi informatif mengenai fasilitas dan harga sebuah kos di dekat Undip.</t>
         </is>
       </c>
     </row>
@@ -11336,12 +11336,12 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Tweet ini adalah sarkasme yang mengkritik seseorang karena jarak yang jauh ke Undip.</t>
+          <t>Tweet ini adalah candaan sarkastik antara teman, tidak mengandung sentimen nyata terhadap Undip.</t>
         </is>
       </c>
     </row>
@@ -11363,7 +11363,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan keinginan untuk pergi ke bukit Undip.</t>
+          <t>Tweet ini hanya menyatakan keinginan pribadi untuk mengunjungi sebuah lokasi ('bukit undip').</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Tweet memberitakan prestasi Undip dalam meluluskan mahasiswa double degree dan internasional, yang sangat positif.</t>
+          <t>Tweet ini adalah berita positif yang menyoroti prestasi Undip dalam meluluskan mahasiswa internasional dan double degree. Catatan: TERINDIKASI BUZZER/BOT berita.</t>
         </is>
       </c>
     </row>
@@ -11407,7 +11407,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Tweet berbagi pengalaman pribadi tentang cara menghubungkan WiFi Undip, sebuah informasi teknis.</t>
+          <t>Tweet ini menceritakan pengalaman pribadi tentang cara menghubungkan wifi Undip, bersifat informatif dan sedikit humor.</t>
         </is>
       </c>
     </row>
@@ -11424,12 +11424,12 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan nama teman dari FH Undip dalam sebuah percakapan, menunjukkan adanya jaringan sosial.</t>
+          <t>Tweet ini adalah pernyataan pribadi bahwa ia memiliki teman SMP yang kuliah di FH Undip.</t>
         </is>
       </c>
     </row>
@@ -11451,7 +11451,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Tweet memberitakan kegiatan positif mahasiswa KKN Undip yang membantu masyarakat.</t>
+          <t>Tweet ini adalah berita yang menyoroti kontribusi positif mahasiswa KKN Undip kepada masyarakat. Catatan: TERINDIKASI BUZZER/BOT berita.</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang prosedur pencabutan berkas KIP-K di beberapa PTN, termasuk Undip.</t>
+          <t>Tweet ini adalah pertanyaan teknis mengenai prosedur administrasi KIPK di beberapa PTN, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Tweet menunjukkan kegigihan dan harapan positif untuk tidak menyerah dalam seleksi masuk Undip.</t>
+          <t>Tweet ini menunjukkan semangat dan determinasi untuk tidak menyerah dalam usahanya masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -11512,12 +11512,12 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>Tweet menanyakan keberadaan beasiswa dari Undip, sebuah permintaan informasi.</t>
+          <t>Tweet ini mengungkapkan kegembiraan dan rasa syukur setelah mengetahui adanya suatu kesempatan (kemungkinan beasiswa) di Undip.</t>
         </is>
       </c>
     </row>
@@ -11539,7 +11539,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa frustrasi yang sangat besar terhadap beban kuliah di Undip ("BEBAN BGT ANJ"), namun diakhiri dengan doa untuk sukses. Sentimen dominan adalah keluhan negatif.</t>
+          <t>Tweet ini mengungkapkan perasaan tertekan dan beratnya menjalani kuliah di Undip ('BEBAN BGT ANJ'). Meskipun tujuannya positif, sentimen terhadap pengalaman saat ini sangat negatif.</t>
         </is>
       </c>
     </row>
@@ -11561,7 +11561,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>Tweet memberikan doa dan harapan positif agar seseorang diterima di Undip.</t>
+          <t>Tweet ini adalah doa dan harapan baik agar seseorang diterima di Undip.</t>
         </is>
       </c>
     </row>
@@ -11578,12 +11578,12 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>Tweet berupa permintaan klarifikasi tentang informasi beasiswa di Undip.</t>
+          <t>Tweet ini menunjukkan antusiasme dan minat yang besar terhadap program beasiswa ke luar negeri dari Undip.</t>
         </is>
       </c>
     </row>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>Tweet ini adalah iklan untuk berbagai keperluan tes masuk universitas, menggunakan kata kunci "undip" untuk promosi. Catatan: TERINDIKASI BUZZER karena bersifat promosi massal.</t>
+          <t>Tweet ini adalah iklan penjualan produk/jasa yang menggunakan banyak tagar universitas termasuk Undip untuk jangkauan. Catatan: TERINDIKASI BUZZER.</t>
         </is>
       </c>
     </row>
@@ -11622,12 +11622,12 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>TIDAK RELEVAN</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>Tweet hanya mentions akun-akun resmi Undip tanpa konteks yang jelas, kemungkinan untuk melaporkan sesuatu, tetapi tidak mengandung sentimen yang bisa dinilai.</t>
+          <t>Tweet ini adalah sebuah pesan yang ditujukan kepada akun-akun terkait Undip mengenai suatu insiden spesifik (mobil), tanpa sentimen yang jelas.</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa terima kasih kepada teman-teman sekelas di Sastra Indonesia Undip, menunjukkan pengalaman positif.</t>
+          <t>Tweet ini mengungkapkan rasa terima kasih dan sentimen positif terhadap pengalaman belajar bersama di Sastra Indonesia Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>Tweet mengutip testimoni positif dari peserta kegiatan penanaman mangrove yang diadakan oleh (kemungkinan besar terkait) Undip.</t>
+          <t>Tweet ini adalah kutipan testimoni positif dari peserta sebuah kegiatan yang diselenggarakan oleh lembaga afiliasi Undip (IKAMaT).</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>Tweet ini adalah bagian dari signature atau identitas akun organisasi HMPS Bahasa dan Kebudayaan Jepang Universitas Diponegoro.</t>
+          <t>Tweet ini adalah tanda tangan atau identitas dari sebuah Himpunan Mahasiswa Program Studi di Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11715,7 +11715,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>Tweet memberitakan prestasi internasional Undip dalam kontribusi terhadap isu lingkungan, sebuah berita yang sangat positif.</t>
+          <t>Tweet ini adalah berita yang menyoroti prestasi dan kontribusi positif Universitas Diponegoro di skala internasional. Catatan: TERINDIKASI BUZZER/BOT berita.</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>Tweet ini adalah bagian dari signature atau identitas akun organisasi HMPS Bahasa dan Kebudayaan Jepang Universitas Diponegoro.</t>
+          <t>Tweet ini adalah tanda tangan dari sebuah Himpunan Mahasiswa di Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11754,12 +11754,12 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>Tweet melaporkan penyelenggaraan acara Forum Luar Biasa oleh HMPS S1-Bahasa dan Kebudayaan Jepang Universitas Diponegoro. Catatan: TERINDIKASI BUZZER karena merupakan laporan kegiatan dari akun organisasi.</t>
+          <t>Tweet ini adalah siaran pers (press release) dari sebuah HMPS di Universitas Diponegoro yang menginformasikan tentang sebuah acara.</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>Tweet melaporkan kehadiran kepolisian dalam acara makrab mahasiswa Papua dari Universitas Diponegoro, sebuah laporan kegiatan yang netral.</t>
+          <t>Tweet ini adalah laporan kegiatan dari kepolisian yang hadir dalam acara mahasiswa Papua Universitas Diponegoro, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>Tweet melaporkan kehadiran kepolisian dalam acara makrab mahasiswa Papua dari Universitas Diponegoro, laporan kegiatan netral.</t>
+          <t>Tweet ini adalah laporan kegiatan yang sama dengan sebelumnya, diposting kembali. Informasional.</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>Tweet melaporkan kehadiran kepolisian dalam acara makrab mahasiswa Papua dari Universitas Diponegoro, laporan kegiatan netral.</t>
+          <t>Tweet ini adalah laporan kegiatan yang sama dengan dua sebelumnya, diposting kembali. Informasional.</t>
         </is>
       </c>
     </row>
@@ -11847,7 +11847,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>Tweet ini adalah bagian dari signature atau identitas akun organisasi HMPS Bahasa dan Kebudayaan Jepang Universitas Diponegoro.</t>
+          <t>Tweet ini adalah identitas dari sebuah Himpunan Mahasiswa di Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>Tweet menginformasikan tentang talkshow yang menghadirkan Guru Besar Hukum dari Universitas Diponegoro, bersifat informatif.</t>
+          <t>Tweet ini menginformasikan tentang sebuah acara diskusi yang menghadirkan seorang Guru Besar dari Fakultas Hukum Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11891,7 +11891,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>Tweet memberitakan kerja sama antara Sekolah Vokasi Undip dengan dua perusahaan besar untuk mendukung program Merdeka Belajar, sebuah berita positif.</t>
+          <t>Tweet ini memberitakan kabar positif mengenai kerjasama antara Sekolah Vokasi Undip dengan dua perusahaan besar.</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>Tweet melaporkan kegiatan positif yang diinisiasi oleh Ikatan Alumni Universitas Diponegoro bersama Menteri KKP.</t>
+          <t>Tweet ini menginformasikan kegiatan positif yang diinisiasi oleh Ikatan Alumni Universitas Diponegoro bersama Menteri KKP.</t>
         </is>
       </c>
     </row>
@@ -11930,12 +11930,12 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>Tweet melaporkan penyelenggaraan acara gathering oleh Magister Ilmu Komunikasi Universitas Diponegoro. Catatan: TERINDIKASI BUZZER karena merupakan laporan kegiatan.</t>
+          <t>Tweet ini adalah berita yang menginformasikan tentang kegiatan gathering yang diadakan oleh Magister Ilmu Komunikasi Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11957,7 +11957,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>Tweet merupakan sebuah respons kebingungan terhadap singkatan "Undip", bukan sentimen terhadap universitasnya.</t>
+          <t>Tweet ini adalah respons terhadap tweet lain, mengklarifikasi bahwa 'Undip' adalah singkatan dari Universitas Diponegoro.</t>
         </is>
       </c>
     </row>
@@ -11979,7 +11979,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>Tweet ini adalah judul berita tentang kegiatan Dekan FPP Universitas Diponegoro, bersifat informatif.</t>
+          <t>Tweet ini adalah judul berita yang menginformasikan kunjungan Dekan FPP Universitas Diponegoro ke Nusakambangan.</t>
         </is>
       </c>
     </row>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>Tweet memberikan petunjuk arah yang melewati area Undip, bersifat informatif.</t>
+          <t>Tweet ini memberikan petunjuk arah yang melewati Undip.</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>Tweet ini adalah ungkapan lamunan atau angan-angan menjadi mahasiswa Undip/Unnes, bersifat netral.</t>
+          <t>Tweet ini mengungkapkan lamunan atau angan-angan menjadi mahasiswa Undip/Unnes, sentimennya netral.</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>Tweet ini adalah pertanyaan langsung kepada seseorang, bukan pernyataan sentimen.</t>
+          <t>Tweet ini adalah pertanyaan kepada seseorang, "lu psiko undip ya".</t>
         </is>
       </c>
     </row>
@@ -12067,7 +12067,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kesadaran tentang nama sebuah tempat di Undip, sebuah realisasi pribadi yang netral.</t>
+          <t>Tweet ini adalah realisasi atau penemuan pribadi tentang nama sebuah gedung/area di Undip.</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan sistem "siap undip" yang tidak siap, sebuah kritik terhadap sistem informasi universitas.</t>
+          <t>Tweet ini adalah keluhan singkat yang menyatakan 'undip tidak siap', kemungkinan merujuk pada sistem atau layanan.</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>Tweet membandingkan kecepatan "siap undip" dengan "elok" secara negatif, menyiratkan sistemnya lambat.</t>
+          <t>Tweet ini merupakan keluhan atau sindiran terhadap sistem Undip ('siap undip') yang dianggap lambat ('lelet').</t>
         </is>
       </c>
     </row>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa "siap undip" lebih lambat dibandingkan "simaster", sebuah kritik negatif terhadap sistem.</t>
+          <t>Tweet ini adalah perbandingan yang menyiratkan bahwa sistem informasi Undip ('siap undip') lebih lambat daripada sistem lain ('simaster').</t>
         </is>
       </c>
     </row>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan jurusan di Undip sebagai jawaban, bersifat informatif.</t>
+          <t>Tweet ini menyebutkan jurusan Kearsipan di Undip dalam sebuah format isian atau daftar.</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa lelah dan frustrasi ("udah capek") dengan sistem "siap undip".</t>
+          <t>Tweet ini mengungkapkan rasa lelah dan frustrasi terhadap sistem informasi Undip ('siap undip').</t>
         </is>
       </c>
     </row>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>Tweet membandingkan beberapa hal (psiko, undip, teknik) dengan nada humor, namun konteksnya adalah keluhan terhadap sistem "siap undip".</t>
+          <t>Tweet ini membandingkan dua jurusan di Undip dengan nada yang menunjukkan konflik atau persaingan, namun sentimennya lebih ke arah keluhan umum.</t>
         </is>
       </c>
     </row>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan rasa lelah terhadap sistem "siap undip", sebuah keluhan.</t>
+          <t>Tweet ini menunjukkan frustrasi terhadap sistem informasi Undip ('siap undip') hingga ingin menunda urusan dan tidur.</t>
         </is>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>Tweet bertanya mengapa sistem "siap undip" miliknya bisa diakses, sementara yang lain mungkin tidak, menunjukkan adanya masalah pada sistem.</t>
+          <t>Tweet ini adalah pertanyaan yang menunjukkan keheranan karena orang lain bisa mengakses sistem 'siap' Undip, menyiratkan bahwa sistem tersebut sedang bermasalah.</t>
         </is>
       </c>
     </row>
@@ -12265,7 +12265,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>Tweet ini adalah meme atau keluhan yang mengkritik ketidaksiapan sistem "SIAP UNDIP".</t>
+          <t>Tweet ini menggunakan meme untuk mengilustrasikan bahwa sistem 'SIAP UNDIP' tidak siap atau crash saat diakses banyak orang.</t>
         </is>
       </c>
     </row>
@@ -12287,7 +12287,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>Tweet bertanya dengan nada humor apakah lulusan PAUD Permata UNDIP mendapatkan keistimewaan untuk masuk UNDIP.</t>
+          <t>Tweet ini adalah pertanyaan humoris tentang apakah lulusan PAUD Permata UNDIP mendapat keistimewaan untuk masuk universitasnya.</t>
         </is>
       </c>
     </row>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>Tweet ini adalah meme yang menggambarkan sistem "siap undip" sebagai sesuatu yang menyeramkan atau bermasalah.</t>
+          <t>Tweet ini menggunakan istilah 'creepypasta' untuk menggambarkan betapa error atau anehnya sistem 'siap undip'.</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan harapan dan doa untuk lolos di Kesmas Undip.</t>
+          <t>Tweet ini berisi doa dan harapan untuk bisa lolos di jurusan Kesmas Undip.</t>
         </is>
       </c>
     </row>
@@ -12353,7 +12353,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan "pssb undip" sebagai jawaban, sebuah informasi netral.</t>
+          <t>Tweet ini menyebutkan 'pssb undip' sebagai jawaban atas sebuah pertanyaan, bersifat informatif.</t>
         </is>
       </c>
     </row>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang detail teknis suatu hal di Undip, sebuah pertanyaan netral.</t>
+          <t>Tweet ini adalah pertanyaan yang meminta detail persentase mengenai suatu hal terkait Undip.</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>Tweet ini menunjukkan harapan dan optimisme untuk diterima di Undip.</t>
+          <t>Tweet ini berisi doa dan harapan positif untuk bisa diterima di Undip, meskipun sedang mengalami kesulitan ('kena dua varian').</t>
         </is>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>Tweet berisi keluhan yang sangat kuat dan langsung ditujukan kepada @undip mengenai keterlambatan pengembalian UKT.</t>
+          <t>Tweet ini adalah keluhan yang ditujukan langsung ke akun Undip mengenai keterlambatan pengembalian UKT.</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>Tweet mengkritik Undip karena aplikasi "siap" yang hanya tersedia untuk Android, menunjukkan perlakuan yang tidak adil.</t>
+          <t>Tweet ini adalah keluhan yang bersifat diskriminatif, menyatakan Undip 'pilih kasih' karena aplikasi 'siap' hanya tersedia untuk Android.</t>
         </is>
       </c>
     </row>
@@ -12463,7 +12463,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>Tweet menyatakan bahwa ada banyak sesuatu (tidak jelas apa) di Undip, sebuah observasi netral.</t>
+          <t>Tweet ini adalah pernyataan bahwa ada banyak (sesuatu, konteks tidak jelas) di Undip.</t>
         </is>
       </c>
     </row>
@@ -12480,12 +12480,12 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>POSITIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>Tweet mempromosikan acara try out UTBK yang diadakan oleh Imaken Undip. Catatan: TERINDIKASI BUZZER karena bersifat promosi dari akun organisasi.</t>
+          <t>Tweet ini adalah promosi untuk acara try out UTBK yang diadakan oleh organisasi mahasiswa Undip. Catatan: TERINDIKASI BUZZER dari akun organisasi.</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang nama jalur seleksi di Undip, sebuah permintaan informasi.</t>
+          <t>Tweet ini adalah pertanyaan untuk mencari tahu nama jalur pendaftaran di Undip.</t>
         </is>
       </c>
     </row>
@@ -12529,7 +12529,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>Tweet menanyakan tentang rencana perkuliahan offline di Undip.</t>
+          <t>Tweet ini adalah pertanyaan mengenai rencana perkuliahan luring (offline) di Undip.</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan libur dari Undip yang terlalu lama dengan nada humor, ini lebih merupakan observasi ringan daripada keluhan serius, namun sentimennya cenderung negatif (bosan).</t>
+          <t>Tweet ini bernada keluhan yang disampaikan secara humoris tentang lamanya liburan yang diberikan oleh Undip.</t>
         </is>
       </c>
     </row>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>Tweet mengeluhkan medan perjalanan ke Undip yang "capek dan tidak ramah saat malam hari", sebuah keluhan tentang aksesibilitas.</t>
+          <t>Tweet ini mengeluhkan akses jalan menuju Undip yang 'bikin capek' dan 'tidak ramah saat malam hari'.</t>
         </is>
       </c>
     </row>
@@ -12590,12 +12590,12 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>NEGATIF</t>
+          <t>NETRAL</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>Tweet mencari alternatif tempat untuk meluapkan emosi selain bukit Undip, menyiratkan pengalaman negatif atau kebutuhan akan tempat lain.</t>
+          <t>Tweet ini adalah permintaan rekomendasi tempat, menyebut 'bukit undip' sebagai salah satu contoh.</t>
         </is>
       </c>
     </row>
@@ -12612,12 +12612,12 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>POSITIF</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>Tweet ini adalah pengingat pribadi tentang tujuan awal masuk Undip untuk menghindari biaya kost.</t>
+          <t>Tweet ini mengungkapkan motivasi pribadi untuk tidak perlu kos karena tujuan masuk Undip.</t>
         </is>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>Tweet meminta rekomendasi hotel di dekat Undip dengan kriteria tertentu.</t>
+          <t>Tweet ini adalah permintaan rekomendasi hotel di dekat Undip dengan kriteria spesifik.</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>Tweet memberikan informasi lokasi di dekat FK Undip.</t>
+          <t>Tweet ini memberikan informasi lokasi yang merujuk pada area di sekitar FK Undip.</t>
         </is>
       </c>
     </row>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang peluang lolos SNM dengan nilai dan sertifikat tertentu di gizi Undip, sebuah permintaan informasi.</t>
+          <t>Tweet ini adalah pertanyaan untuk menilai peluang lolos SNM di gizi Undip dengan data yang spesifik.</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang kebijakan linjur untuk SNMPTN di Undip, sebuah permintaan informasi.</t>
+          <t>Tweet ini adalah pertanyaan mengenai aturan linjur (lintas jurusan) untuk SNMPTN di Undip.</t>
         </is>
       </c>
     </row>
@@ -12727,7 +12727,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>Tweet ini meminta saran strategis pemilihan jurusan di SNMPTN, dengan Undip sebagai salah satu pilihan.</t>
+          <t>Tweet ini adalah pertanyaan yang meminta pendapat mengenai peluang lolos di FK Undip dengan data yang spesifik.</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>Tweet meminta saran tentang peluang lolos di jurusan fisika Undip dengan kondisi yang spesifik.</t>
+          <t>Tweet ini berisi pertanyaan dan keraguan mengenai peluang lolos di jurusan fisika Undip.</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12793,7 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>Tweet menyebutkan bahwa seseorang "nyasar sampe undip", sebuah informasi pergerakan yang netral.</t>
+          <t>Tweet ini adalah komentar singkat yang merujuk pada keberadaan seseorang di Undip.</t>
         </is>
       </c>
     </row>
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>Tweet meminta saran pemilihan jurusan, dengan ilkom Undip sebagai salah satu pilihan yang dipertimbangkan.</t>
+          <t>Tweet ini adalah pertanyaan meminta saran dan analisis mengenai peluang lolos di Ilkom Undip atau Uny.</t>
         </is>
       </c>
     </row>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>Tweet mengungkapkan kekecewaan karena persaingan masuk Undip yang sangat ketat.</t>
+          <t>Tweet ini menyatakan bahwa persaingan untuk masuk Undip sangat ketat, yang bisa dianggap sebagai keluhan atau kesulitan.</t>
         </is>
       </c>
     </row>
@@ -12854,12 +12854,12 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>NETRAL</t>
+          <t>TIDAK RELEVAN</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang tingkat risiko (bundir) memilih FKG UNDIP di SNMPTN dengan kondisi tertentu.</t>
+          <t>Tweet ini adalah pertanyaan yang sangat spesifik dan menggunakan istilah 'bundir' (bunuh diri) secara hiperbolis, namun inti pertanyaannya adalah mencari informasi peluang diterima di FKG Undip. Diklasifikasikan sebagai Tidak Relevan karena fokusnya pada strategi pribadi dan bukan sentimen tentang universitas.</t>
         </is>
       </c>
     </row>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>Tweet meminta pendapat tentang peluang lolos SNMPTN di ITB dan Undip dengan spesifikasi nilai dan sertifikat tertentu.</t>
+          <t>Tweet ini adalah pertanyaan mengenai peluang lolos SNMPTN dengan data spesifik, menyebut Undip sebagai salah satu opsi.</t>
         </is>
       </c>
     </row>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>Tweet mengklarifikasi bahwa penulis adalah mahasiswa perkapalan Undip, sebuah fakta pribadi.</t>
+          <t>Tweet ini adalah jawaban atas pertanyaan, mengklarifikasi bahwa penulis adalah alumni perkapalan Undip.</t>
         </is>
       </c>
     </row>
@@ -12925,7 +12925,7 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang hotel dekat Undip yang aksesnya tidak menanjak, menyoroti kesulitan medan di sekitar kampus.</t>
+          <t>Tweet ini adalah keluhan tentang kesulitan mencari hotel di dekat Undip yang tidak memiliki jalan menanjak.</t>
         </is>
       </c>
     </row>
@@ -12947,7 +12947,7 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>Tweet bertanya tentang tingkat keketatan persaingan di jurusan gizi di beberapa universitas, termasuk Undip.</t>
+          <t>Tweet ini adalah pertanyaan yang meminta perbandingan tingkat persaingan di beberapa universitas, termasuk Undip.</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>Tweet meminta informasi suka duka kuliah di jurusan Farmasi, dengan menyebut Undip sebagai salah satu contoh universitas.</t>
+          <t>Tweet ini adalah permintaan untuk berbagi pengalaman suka duka kuliah di jurusan Farmasi, dengan menyebut Undip sebagai salah satu contoh.</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>Tweet meminta saran strategis untuk pilihan kedua SNMPTN antara IPB dan Undip.</t>
+          <t>Tweet ini meminta saran strategis dalam memilih PTN, dengan Undip sebagai salah satu pilihan.</t>
         </is>
       </c>
     </row>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>Tweet memberikan instruksi rute BRT yang melewati shelter Undip, bersifat informatif.</t>
+          <t>Tweet ini memberikan informasi tentang rute BRT (Trans Semarang) untuk menuju Undip.</t>
         </is>
       </c>
     </row>
